--- a/output/control_lejano_siviru_20250805173032.xlsx
+++ b/output/control_lejano_siviru_20250805173032.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5420f79c2d515b70/All/PacificoTaskForce/ptfr/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_99F5528EC3413069769FBB93EA7BD2723A4F9C4D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0A6E16F-D742-49D0-8675-3A0DAF20724F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_99F5528EC3413069769FBB93EA7BD2723A4F9C4D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81FE2611-351E-4FEE-A056-2A6212BE2A4E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="control_lejano_siviru" sheetId="1" r:id="rId1"/>
@@ -2188,7 +2188,7 @@
   <dimension ref="A1:T121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A3" sqref="A3:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2259,47 +2259,47 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>369</v>
-      </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>371</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>456</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>457</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>458</v>
       </c>
       <c r="G2" t="s">
-        <v>372</v>
+        <v>459</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>373</v>
+        <v>460</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>461</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>38528</v>
+        <v>39785</v>
+      </c>
+      <c r="O2" t="s">
+        <v>462</v>
+      </c>
+      <c r="P2" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>463</v>
       </c>
       <c r="R2">
-        <v>0.35307699243557938</v>
+        <v>0.36339512506668648</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -2310,25 +2310,25 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>370</v>
       </c>
       <c r="C3" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>424</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
@@ -2337,7 +2337,7 @@
         <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>426</v>
+        <v>373</v>
       </c>
       <c r="K3" t="s">
         <v>30</v>
@@ -2346,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>38632</v>
+        <v>38528</v>
       </c>
       <c r="R3">
-        <v>0.35392565629317257</v>
+        <v>0.35307699243557938</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -2359,47 +2359,47 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>422</v>
+      </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>423</v>
       </c>
       <c r="D4" t="s">
-        <v>456</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="F4" t="s">
-        <v>458</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="H4" t="s">
-        <v>460</v>
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>426</v>
       </c>
       <c r="K4" t="s">
-        <v>461</v>
+        <v>30</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>39785</v>
-      </c>
-      <c r="O4" t="s">
-        <v>462</v>
-      </c>
-      <c r="P4" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>463</v>
+        <v>38632</v>
       </c>
       <c r="R4">
-        <v>0.36339512506668648</v>
+        <v>0.35392565629317257</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -2409,73 +2409,73 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>127</v>
-      </c>
       <c r="B5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" t="s">
-        <v>129</v>
+        <v>464</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>465</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>458</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>466</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>131</v>
+        <v>460</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>461</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>32004</v>
+        <v>36153</v>
+      </c>
+      <c r="O5" t="s">
+        <v>462</v>
+      </c>
+      <c r="P5" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>467</v>
       </c>
       <c r="R5">
-        <v>0.30185321758268102</v>
+        <v>0.33395668397841799</v>
       </c>
       <c r="S5">
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>357</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
@@ -2484,7 +2484,7 @@
         <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>358</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
         <v>30</v>
@@ -2493,139 +2493,130 @@
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>31953</v>
+        <v>36181</v>
       </c>
       <c r="R6">
-        <v>0.3014695988831087</v>
+        <v>0.33417910024725728</v>
       </c>
       <c r="S6">
         <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>306</v>
+      </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="C7" t="s">
-        <v>496</v>
+        <v>308</v>
       </c>
       <c r="D7" t="s">
-        <v>497</v>
-      </c>
-      <c r="E7" t="s">
-        <v>498</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>36287</v>
+      </c>
+      <c r="R7">
+        <v>0.33502177221643348</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" t="s">
+        <v>468</v>
+      </c>
+      <c r="F8" t="s">
         <v>458</v>
       </c>
-      <c r="G7" t="s">
-        <v>499</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G8" t="s">
+        <v>469</v>
+      </c>
+      <c r="H8" t="s">
         <v>460</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K8" t="s">
         <v>461</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2">
-        <v>31907</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>34576</v>
+      </c>
+      <c r="O8" t="s">
         <v>462</v>
       </c>
-      <c r="P7" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>500</v>
-      </c>
-      <c r="R7">
-        <v>0.30112382768402091</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>403</v>
-      </c>
-      <c r="B8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>407</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>408</v>
-      </c>
-      <c r="K8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>25855</v>
+      <c r="P8" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>470</v>
       </c>
       <c r="R8">
-        <v>0.25768303713467289</v>
+        <v>0.32155122520553903</v>
       </c>
       <c r="S8">
         <v>1</v>
       </c>
       <c r="T8" t="s">
-        <v>409</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>432</v>
+        <v>277</v>
       </c>
       <c r="D9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>214</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>433</v>
+        <v>279</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -2634,7 +2625,7 @@
         <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>434</v>
+        <v>280</v>
       </c>
       <c r="K9" t="s">
         <v>30</v>
@@ -2643,139 +2634,136 @@
         <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>27421</v>
+        <v>34474</v>
       </c>
       <c r="R9">
-        <v>0.26852282478691569</v>
+        <v>0.32075721040152388</v>
       </c>
       <c r="S9">
         <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>409</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>269</v>
+      </c>
       <c r="B10" t="s">
-        <v>501</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
-        <v>502</v>
+        <v>271</v>
       </c>
       <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>273</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>34511</v>
+      </c>
+      <c r="R10">
+        <v>0.32104511580770911</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" t="s">
         <v>152</v>
       </c>
-      <c r="E10" t="s">
-        <v>485</v>
-      </c>
-      <c r="F10" t="s">
-        <v>458</v>
-      </c>
-      <c r="G10" t="s">
-        <v>503</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F11" t="s">
+        <v>472</v>
+      </c>
+      <c r="G11" t="s">
+        <v>473</v>
+      </c>
+      <c r="H11" t="s">
         <v>460</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K11" t="s">
         <v>461</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2">
-        <v>27552</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>24183</v>
+      </c>
+      <c r="O11" t="s">
         <v>462</v>
       </c>
-      <c r="P10" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>504</v>
-      </c>
-      <c r="R10">
-        <v>0.26944256846423881</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>30151</v>
+      <c r="P11" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>474</v>
       </c>
       <c r="R11">
-        <v>0.28809542304747909</v>
+        <v>0.246429462769231</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>376</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>377</v>
+        <v>174</v>
       </c>
       <c r="H12" t="s">
         <v>27</v>
@@ -2784,7 +2772,7 @@
         <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>378</v>
+        <v>175</v>
       </c>
       <c r="K12" t="s">
         <v>30</v>
@@ -2793,136 +2781,136 @@
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>29900</v>
+        <v>23990</v>
       </c>
       <c r="R12">
-        <v>0.28626079174882618</v>
+        <v>0.24515197210051079</v>
       </c>
       <c r="S12">
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>161</v>
+      </c>
       <c r="B13" t="s">
-        <v>505</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>506</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>498</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>507</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>508</v>
+        <v>164</v>
       </c>
       <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>24606</v>
+      </c>
+      <c r="R13">
+        <v>0.2492449848707346</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>475</v>
+      </c>
+      <c r="D14" t="s">
+        <v>476</v>
+      </c>
+      <c r="E14" t="s">
+        <v>477</v>
+      </c>
+      <c r="F14" t="s">
+        <v>472</v>
+      </c>
+      <c r="G14" t="s">
+        <v>478</v>
+      </c>
+      <c r="H14" t="s">
         <v>460</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K14" t="s">
         <v>461</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" s="2">
-        <v>29919</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>37627</v>
+      </c>
+      <c r="O14" t="s">
         <v>462</v>
       </c>
-      <c r="P13" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>509</v>
-      </c>
-      <c r="R13">
-        <v>0.28639942321818912</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B14" t="s">
-        <v>338</v>
-      </c>
-      <c r="C14" t="s">
-        <v>339</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>340</v>
-      </c>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" t="s">
-        <v>341</v>
-      </c>
-      <c r="K14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>34300</v>
+      <c r="P14" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>479</v>
       </c>
       <c r="R14">
-        <v>0.31940510735884797</v>
+        <v>0.34576382659865329</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>20</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="B15" t="s">
-        <v>447</v>
+        <v>398</v>
+      </c>
+      <c r="C15" t="s">
+        <v>399</v>
       </c>
       <c r="D15" t="s">
-        <v>324</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>448</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
       <c r="H15" t="s">
         <v>27</v>
@@ -2931,7 +2919,7 @@
         <v>28</v>
       </c>
       <c r="J15" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="K15" t="s">
         <v>30</v>
@@ -2940,139 +2928,136 @@
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>34328</v>
+        <v>37176</v>
       </c>
       <c r="R15">
-        <v>0.31962248296090923</v>
+        <v>0.34213013729429348</v>
       </c>
       <c r="S15">
         <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>20</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>414</v>
+      </c>
       <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>261</v>
+        <v>415</v>
       </c>
       <c r="D16" t="s">
-        <v>424</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>416</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>417</v>
+      </c>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>38183</v>
+      </c>
+      <c r="R16">
+        <v>0.35026836487832819</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>480</v>
+      </c>
+      <c r="C17" t="s">
+        <v>481</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
         <v>458</v>
       </c>
-      <c r="G16" t="s">
-        <v>510</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G17" t="s">
+        <v>482</v>
+      </c>
+      <c r="H17" t="s">
         <v>460</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K17" t="s">
         <v>461</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2">
-        <v>34176</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>28084</v>
+      </c>
+      <c r="O17" t="s">
         <v>462</v>
       </c>
-      <c r="P16" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>511</v>
-      </c>
-      <c r="R16">
-        <v>0.31844338826939972</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>29508</v>
+      <c r="P17" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>483</v>
       </c>
       <c r="R17">
-        <v>0.28340959666569238</v>
+        <v>0.27319808036632143</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>59</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>328</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>329</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>330</v>
       </c>
       <c r="H18" t="s">
         <v>27</v>
@@ -3081,7 +3066,7 @@
         <v>28</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
+        <v>331</v>
       </c>
       <c r="K18" t="s">
         <v>30</v>
@@ -3090,139 +3075,130 @@
         <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>27766</v>
+        <v>26472</v>
       </c>
       <c r="R18">
-        <v>0.27094932071518352</v>
+        <v>0.26191957621954048</v>
       </c>
       <c r="S18">
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>440</v>
+      </c>
       <c r="B19" t="s">
-        <v>512</v>
-      </c>
-      <c r="C19" t="s">
-        <v>513</v>
+        <v>441</v>
       </c>
       <c r="D19" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="E19" t="s">
+        <v>443</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>444</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" t="s">
+        <v>445</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>27837</v>
+      </c>
+      <c r="R19">
+        <v>0.27145039255831321</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>484</v>
+      </c>
+      <c r="C20" t="s">
+        <v>419</v>
+      </c>
+      <c r="D20" t="s">
+        <v>485</v>
+      </c>
+      <c r="E20" t="s">
         <v>36</v>
       </c>
-      <c r="F19" t="s">
-        <v>507</v>
-      </c>
-      <c r="G19" t="s">
-        <v>514</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="F20" t="s">
+        <v>472</v>
+      </c>
+      <c r="G20" t="s">
+        <v>486</v>
+      </c>
+      <c r="H20" t="s">
         <v>460</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K20" t="s">
         <v>461</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2">
-        <v>29526</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>31637</v>
+      </c>
+      <c r="O20" t="s">
         <v>462</v>
       </c>
-      <c r="P19" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>515</v>
-      </c>
-      <c r="R19">
-        <v>0.28354014229319119</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>25430</v>
+      <c r="P20" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>487</v>
       </c>
       <c r="R20">
-        <v>0.25479098827696628</v>
+        <v>0.29909886172553501</v>
       </c>
       <c r="S20">
         <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>359</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>360</v>
-      </c>
-      <c r="C21" t="s">
-        <v>361</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
         <v>42</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>362</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
         <v>27</v>
@@ -3231,7 +3207,7 @@
         <v>28</v>
       </c>
       <c r="J21" t="s">
-        <v>363</v>
+        <v>44</v>
       </c>
       <c r="K21" t="s">
         <v>30</v>
@@ -3240,136 +3216,136 @@
         <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>26359</v>
+        <v>31616</v>
       </c>
       <c r="R21">
-        <v>0.26114032703847062</v>
+        <v>0.29894169188161412</v>
       </c>
       <c r="S21">
         <v>1</v>
       </c>
       <c r="T21" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>228</v>
+      </c>
       <c r="B22" t="s">
-        <v>516</v>
+        <v>229</v>
       </c>
       <c r="C22" t="s">
-        <v>517</v>
+        <v>230</v>
       </c>
       <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
         <v>83</v>
       </c>
-      <c r="E22" t="s">
-        <v>152</v>
-      </c>
       <c r="F22" t="s">
-        <v>507</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>518</v>
+        <v>231</v>
       </c>
       <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>232</v>
+      </c>
+      <c r="K22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>32025</v>
+      </c>
+      <c r="R22">
+        <v>0.30201125873785972</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>488</v>
+      </c>
+      <c r="D23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E23" t="s">
+        <v>489</v>
+      </c>
+      <c r="F23" t="s">
+        <v>472</v>
+      </c>
+      <c r="G23" t="s">
+        <v>490</v>
+      </c>
+      <c r="H23" t="s">
         <v>460</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K23" t="s">
         <v>461</v>
       </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
-        <v>26247</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>29474</v>
+      </c>
+      <c r="O23" t="s">
         <v>462</v>
       </c>
-      <c r="P22" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>519</v>
-      </c>
-      <c r="R22">
-        <v>0.26036945455902361</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>22639</v>
+      <c r="P23" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>491</v>
       </c>
       <c r="R23">
-        <v>0.2363353055971196</v>
+        <v>0.28316310964037927</v>
       </c>
       <c r="S23">
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="H24" t="s">
         <v>27</v>
@@ -3378,7 +3354,7 @@
         <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
         <v>30</v>
@@ -3387,136 +3363,133 @@
         <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>23128</v>
+        <v>27400</v>
       </c>
       <c r="R24">
-        <v>0.23950105766746149</v>
+        <v>0.26837556989636902</v>
       </c>
       <c r="S24">
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>116</v>
+      </c>
       <c r="B25" t="s">
-        <v>520</v>
-      </c>
-      <c r="C25" t="s">
-        <v>521</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>29423</v>
+      </c>
+      <c r="R25">
+        <v>0.28279362238497469</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>492</v>
+      </c>
+      <c r="C26" t="s">
+        <v>493</v>
+      </c>
+      <c r="D26" t="s">
         <v>448</v>
       </c>
-      <c r="F25" t="s">
-        <v>507</v>
-      </c>
-      <c r="G25" t="s">
-        <v>522</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" t="s">
+        <v>472</v>
+      </c>
+      <c r="G26" t="s">
+        <v>494</v>
+      </c>
+      <c r="H26" t="s">
         <v>460</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K26" t="s">
         <v>461</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25" s="2">
-        <v>23493</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>29786</v>
+      </c>
+      <c r="O26" t="s">
         <v>462</v>
       </c>
-      <c r="P25" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>523</v>
-      </c>
-      <c r="R25">
-        <v>0.2418829028782056</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" t="s">
-        <v>72</v>
-      </c>
-      <c r="K26" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
-        <v>24603</v>
+      <c r="P26" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>495</v>
       </c>
       <c r="R26">
-        <v>0.24922494116124369</v>
+        <v>0.28542984760534212</v>
       </c>
       <c r="S26">
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" t="s">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s">
         <v>27</v>
@@ -3525,7 +3498,7 @@
         <v>28</v>
       </c>
       <c r="J27" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s">
         <v>30</v>
@@ -3534,136 +3507,136 @@
         <v>0</v>
       </c>
       <c r="M27" s="2">
-        <v>24464</v>
+        <v>29125</v>
       </c>
       <c r="R27">
-        <v>0.24829743055312861</v>
+        <v>0.28064050752842479</v>
       </c>
       <c r="S27">
         <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>302</v>
+      </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
-        <v>524</v>
+        <v>303</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>507</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>525</v>
+        <v>304</v>
       </c>
       <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
+        <v>305</v>
+      </c>
+      <c r="K28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>29960</v>
+      </c>
+      <c r="R28">
+        <v>0.28669871223275001</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C29" t="s">
+        <v>496</v>
+      </c>
+      <c r="D29" t="s">
+        <v>497</v>
+      </c>
+      <c r="E29" t="s">
+        <v>498</v>
+      </c>
+      <c r="F29" t="s">
+        <v>458</v>
+      </c>
+      <c r="G29" t="s">
+        <v>499</v>
+      </c>
+      <c r="H29" t="s">
         <v>460</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K29" t="s">
         <v>461</v>
       </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28" s="2">
-        <v>24428</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
+        <v>31907</v>
+      </c>
+      <c r="O29" t="s">
         <v>462</v>
       </c>
-      <c r="P28" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>526</v>
-      </c>
-      <c r="R28">
-        <v>0.24805758920855711</v>
-      </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
-      <c r="T28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
-        <v>24902</v>
+      <c r="P29" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>500</v>
       </c>
       <c r="R29">
-        <v>0.25122792079360201</v>
+        <v>0.30112382768402091</v>
       </c>
       <c r="S29">
         <v>1</v>
       </c>
       <c r="T29" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>355</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>356</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
+        <v>357</v>
       </c>
       <c r="H30" t="s">
         <v>27</v>
@@ -3672,7 +3645,7 @@
         <v>28</v>
       </c>
       <c r="J30" t="s">
-        <v>154</v>
+        <v>358</v>
       </c>
       <c r="K30" t="s">
         <v>30</v>
@@ -3681,136 +3654,139 @@
         <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>24779</v>
+        <v>31953</v>
       </c>
       <c r="R30">
-        <v>0.25040265934035272</v>
+        <v>0.3014695988831087</v>
       </c>
       <c r="S30">
         <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
       <c r="B31" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>527</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
         <v>36</v>
       </c>
-      <c r="E31" t="s">
-        <v>528</v>
-      </c>
       <c r="F31" t="s">
-        <v>529</v>
+        <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>530</v>
+        <v>130</v>
       </c>
       <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>32004</v>
+      </c>
+      <c r="R31">
+        <v>0.30185321758268102</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>501</v>
+      </c>
+      <c r="C32" t="s">
+        <v>502</v>
+      </c>
+      <c r="D32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" t="s">
+        <v>485</v>
+      </c>
+      <c r="F32" t="s">
+        <v>458</v>
+      </c>
+      <c r="G32" t="s">
+        <v>503</v>
+      </c>
+      <c r="H32" t="s">
         <v>460</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K32" t="s">
         <v>461</v>
       </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31" s="2">
-        <v>24880</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>27552</v>
+      </c>
+      <c r="O32" t="s">
         <v>462</v>
       </c>
-      <c r="P31" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>531</v>
-      </c>
-      <c r="R31">
-        <v>0.25108018042342273</v>
-      </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="T31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" t="s">
-        <v>181</v>
-      </c>
-      <c r="K32" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
-        <v>25196</v>
+      <c r="P32" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>504</v>
       </c>
       <c r="R32">
-        <v>0.25320780763044243</v>
+        <v>0.26944256846423881</v>
       </c>
       <c r="S32">
         <v>1</v>
       </c>
       <c r="T32" t="s">
-        <v>182</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="B33" t="s">
-        <v>349</v>
+        <v>404</v>
+      </c>
+      <c r="C33" t="s">
+        <v>405</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>406</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
         <v>25</v>
       </c>
       <c r="G33" t="s">
-        <v>350</v>
+        <v>407</v>
       </c>
       <c r="H33" t="s">
         <v>27</v>
@@ -3819,7 +3795,7 @@
         <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="K33" t="s">
         <v>30</v>
@@ -3828,136 +3804,139 @@
         <v>0</v>
       </c>
       <c r="M33" s="2">
-        <v>25226</v>
+        <v>25855</v>
       </c>
       <c r="R33">
-        <v>0.25341041570080958</v>
+        <v>0.25768303713467289</v>
       </c>
       <c r="S33">
         <v>1</v>
       </c>
       <c r="T33" t="s">
-        <v>182</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>430</v>
+      </c>
       <c r="B34" t="s">
-        <v>520</v>
+        <v>431</v>
       </c>
       <c r="C34" t="s">
-        <v>532</v>
+        <v>432</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F34" t="s">
-        <v>529</v>
+        <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>533</v>
+        <v>433</v>
       </c>
       <c r="H34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" t="s">
+        <v>434</v>
+      </c>
+      <c r="K34" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>27421</v>
+      </c>
+      <c r="R34">
+        <v>0.26852282478691569</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>505</v>
+      </c>
+      <c r="C35" t="s">
+        <v>506</v>
+      </c>
+      <c r="D35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" t="s">
+        <v>498</v>
+      </c>
+      <c r="F35" t="s">
+        <v>507</v>
+      </c>
+      <c r="G35" t="s">
+        <v>508</v>
+      </c>
+      <c r="H35" t="s">
         <v>460</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K35" t="s">
         <v>461</v>
       </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34" s="2">
-        <v>25266</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>29919</v>
+      </c>
+      <c r="O35" t="s">
         <v>462</v>
       </c>
-      <c r="P34" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>534</v>
-      </c>
-      <c r="R34">
-        <v>0.25368072633234118</v>
-      </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-      <c r="T34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" t="s">
-        <v>91</v>
-      </c>
-      <c r="K35" t="s">
-        <v>30</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
-        <v>36181</v>
+      <c r="P35" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>509</v>
       </c>
       <c r="R35">
-        <v>0.33417910024725728</v>
+        <v>0.28639942321818912</v>
       </c>
       <c r="S35">
         <v>1</v>
       </c>
       <c r="T35" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="B36" t="s">
-        <v>307</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>83</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
       </c>
       <c r="F36" t="s">
         <v>25</v>
       </c>
       <c r="G36" t="s">
-        <v>309</v>
+        <v>377</v>
       </c>
       <c r="H36" t="s">
         <v>27</v>
@@ -3966,7 +3945,7 @@
         <v>28</v>
       </c>
       <c r="J36" t="s">
-        <v>310</v>
+        <v>378</v>
       </c>
       <c r="K36" t="s">
         <v>30</v>
@@ -3975,133 +3954,139 @@
         <v>0</v>
       </c>
       <c r="M36" s="2">
-        <v>36287</v>
+        <v>29900</v>
       </c>
       <c r="R36">
-        <v>0.33502177221643348</v>
+        <v>0.28626079174882618</v>
       </c>
       <c r="S36">
         <v>1</v>
       </c>
       <c r="T36" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
       <c r="B37" t="s">
-        <v>464</v>
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>465</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>30151</v>
+      </c>
+      <c r="R37">
+        <v>0.28809542304747909</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" t="s">
         <v>458</v>
       </c>
-      <c r="G37" t="s">
-        <v>466</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G38" t="s">
+        <v>510</v>
+      </c>
+      <c r="H38" t="s">
         <v>460</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K38" t="s">
         <v>461</v>
       </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37" s="2">
-        <v>36153</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>34176</v>
+      </c>
+      <c r="O38" t="s">
         <v>462</v>
       </c>
-      <c r="P37" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>467</v>
-      </c>
-      <c r="R37">
-        <v>0.33395668397841799</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-      <c r="T37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>255</v>
-      </c>
-      <c r="B38" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38" t="s">
-        <v>256</v>
-      </c>
-      <c r="D38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" t="s">
-        <v>257</v>
-      </c>
-      <c r="H38" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" t="s">
-        <v>258</v>
-      </c>
-      <c r="K38" t="s">
-        <v>30</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
-        <v>33953</v>
+      <c r="P38" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>511</v>
       </c>
       <c r="R38">
-        <v>0.31671773633671579</v>
+        <v>0.31844338826939972</v>
       </c>
       <c r="S38">
         <v>1</v>
       </c>
       <c r="T38" t="s">
-        <v>259</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>410</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s">
-        <v>411</v>
+        <v>338</v>
+      </c>
+      <c r="C39" t="s">
+        <v>339</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
         <v>25</v>
       </c>
       <c r="G39" t="s">
-        <v>412</v>
+        <v>340</v>
       </c>
       <c r="H39" t="s">
         <v>27</v>
@@ -4110,7 +4095,7 @@
         <v>28</v>
       </c>
       <c r="J39" t="s">
-        <v>413</v>
+        <v>341</v>
       </c>
       <c r="K39" t="s">
         <v>30</v>
@@ -4119,136 +4104,136 @@
         <v>0</v>
       </c>
       <c r="M39" s="2">
-        <v>34366</v>
+        <v>34300</v>
       </c>
       <c r="R39">
-        <v>0.31991761811915248</v>
+        <v>0.31940510735884797</v>
       </c>
       <c r="S39">
         <v>1</v>
       </c>
       <c r="T39" t="s">
-        <v>259</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>446</v>
+      </c>
       <c r="B40" t="s">
-        <v>520</v>
-      </c>
-      <c r="C40" t="s">
-        <v>535</v>
+        <v>447</v>
       </c>
       <c r="D40" t="s">
+        <v>324</v>
+      </c>
+      <c r="E40" t="s">
+        <v>448</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>449</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" t="s">
+        <v>450</v>
+      </c>
+      <c r="K40" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>34328</v>
+      </c>
+      <c r="R40">
+        <v>0.31962248296090923</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>512</v>
+      </c>
+      <c r="C41" t="s">
+        <v>513</v>
+      </c>
+      <c r="D41" t="s">
+        <v>424</v>
+      </c>
+      <c r="E41" t="s">
         <v>36</v>
       </c>
-      <c r="E40" t="s">
-        <v>536</v>
-      </c>
-      <c r="F40" t="s">
-        <v>529</v>
-      </c>
-      <c r="G40" t="s">
-        <v>537</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="F41" t="s">
+        <v>507</v>
+      </c>
+      <c r="G41" t="s">
+        <v>514</v>
+      </c>
+      <c r="H41" t="s">
         <v>460</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K41" t="s">
         <v>461</v>
       </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40" s="2">
-        <v>34132</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
+        <v>29526</v>
+      </c>
+      <c r="O41" t="s">
         <v>462</v>
       </c>
-      <c r="P40" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>538</v>
-      </c>
-      <c r="R40">
-        <v>0.31810250417422081</v>
-      </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
-      <c r="T40" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>200</v>
-      </c>
-      <c r="B41" t="s">
-        <v>201</v>
-      </c>
-      <c r="C41" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" t="s">
-        <v>152</v>
-      </c>
-      <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>203</v>
-      </c>
-      <c r="H41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I41" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41" t="s">
-        <v>204</v>
-      </c>
-      <c r="K41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
-        <v>28401</v>
+      <c r="P41" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>515</v>
       </c>
       <c r="R41">
-        <v>0.27545132575860642</v>
+        <v>0.28354014229319119</v>
       </c>
       <c r="S41">
         <v>1</v>
       </c>
       <c r="T41" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>134</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
         <v>25</v>
       </c>
       <c r="G42" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="H42" t="s">
         <v>27</v>
@@ -4257,7 +4242,7 @@
         <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="K42" t="s">
         <v>30</v>
@@ -4266,136 +4251,139 @@
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>29962</v>
+        <v>27766</v>
       </c>
       <c r="R42">
-        <v>0.2867133164808125</v>
+        <v>0.27094932071518352</v>
       </c>
       <c r="S42">
         <v>1</v>
       </c>
       <c r="T42" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
       <c r="B43" t="s">
-        <v>539</v>
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>540</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>541</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>529</v>
+        <v>25</v>
       </c>
       <c r="G43" t="s">
-        <v>542</v>
+        <v>57</v>
       </c>
       <c r="H43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>29508</v>
+      </c>
+      <c r="R43">
+        <v>0.28340959666569238</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>516</v>
+      </c>
+      <c r="C44" t="s">
+        <v>517</v>
+      </c>
+      <c r="D44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" t="s">
+        <v>507</v>
+      </c>
+      <c r="G44" t="s">
+        <v>518</v>
+      </c>
+      <c r="H44" t="s">
         <v>460</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K44" t="s">
         <v>461</v>
       </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43" s="2">
-        <v>29766</v>
-      </c>
-      <c r="O43" t="s">
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2">
+        <v>26247</v>
+      </c>
+      <c r="O44" t="s">
         <v>462</v>
       </c>
-      <c r="P43" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>543</v>
-      </c>
-      <c r="R43">
-        <v>0.28528421737621479</v>
-      </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
-      <c r="T43" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" t="s">
-        <v>29</v>
-      </c>
-      <c r="K44" t="s">
-        <v>30</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
-        <v>30531</v>
+      <c r="P44" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>519</v>
       </c>
       <c r="R44">
-        <v>0.29088622732304198</v>
+        <v>0.26036945455902361</v>
       </c>
       <c r="S44">
         <v>1</v>
       </c>
       <c r="T44" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>296</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>298</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>299</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s">
         <v>25</v>
       </c>
       <c r="G45" t="s">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="H45" t="s">
         <v>27</v>
@@ -4404,7 +4392,7 @@
         <v>28</v>
       </c>
       <c r="J45" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
       <c r="K45" t="s">
         <v>30</v>
@@ -4413,127 +4401,130 @@
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>31090</v>
+        <v>25430</v>
       </c>
       <c r="R45">
-        <v>0.29502047726102038</v>
+        <v>0.25479098827696628</v>
       </c>
       <c r="S45">
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>359</v>
+      </c>
       <c r="B46" t="s">
-        <v>544</v>
+        <v>360</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>361</v>
       </c>
       <c r="D46" t="s">
-        <v>540</v>
+        <v>35</v>
       </c>
       <c r="E46" t="s">
-        <v>424</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>458</v>
+        <v>25</v>
       </c>
       <c r="G46" t="s">
-        <v>545</v>
+        <v>362</v>
       </c>
       <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" t="s">
+        <v>363</v>
+      </c>
+      <c r="K46" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>26359</v>
+      </c>
+      <c r="R46">
+        <v>0.26114032703847062</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>520</v>
+      </c>
+      <c r="C47" t="s">
+        <v>521</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s">
+        <v>448</v>
+      </c>
+      <c r="F47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G47" t="s">
+        <v>522</v>
+      </c>
+      <c r="H47" t="s">
         <v>460</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K47" t="s">
         <v>461</v>
       </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46" s="2">
-        <v>31125</v>
-      </c>
-      <c r="O46" t="s">
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" s="2">
+        <v>23493</v>
+      </c>
+      <c r="O47" t="s">
         <v>462</v>
       </c>
-      <c r="P46" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>546</v>
-      </c>
-      <c r="R46">
-        <v>0.29528046433563943</v>
-      </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
-      <c r="T46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>385</v>
-      </c>
-      <c r="B47" t="s">
-        <v>386</v>
-      </c>
-      <c r="C47" t="s">
-        <v>387</v>
-      </c>
-      <c r="D47" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" t="s">
-        <v>388</v>
-      </c>
-      <c r="F47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" t="s">
-        <v>389</v>
-      </c>
-      <c r="H47" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47" t="s">
-        <v>28</v>
-      </c>
-      <c r="J47" t="s">
-        <v>390</v>
-      </c>
-      <c r="K47" t="s">
-        <v>30</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
-        <v>32634</v>
+      <c r="P47" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>523</v>
       </c>
       <c r="R47">
-        <v>0.30661477088797989</v>
+        <v>0.2418829028782056</v>
       </c>
       <c r="S47">
         <v>1</v>
       </c>
       <c r="T47" t="s">
-        <v>391</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>392</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>393</v>
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>394</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -4542,7 +4533,7 @@
         <v>25</v>
       </c>
       <c r="G48" t="s">
-        <v>395</v>
+        <v>37</v>
       </c>
       <c r="H48" t="s">
         <v>27</v>
@@ -4551,7 +4542,7 @@
         <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>396</v>
+        <v>38</v>
       </c>
       <c r="K48" t="s">
         <v>30</v>
@@ -4560,139 +4551,133 @@
         <v>0</v>
       </c>
       <c r="M48" s="2">
-        <v>32704</v>
+        <v>22639</v>
       </c>
       <c r="R48">
-        <v>0.30714641288539501</v>
+        <v>0.2363353055971196</v>
       </c>
       <c r="S48">
         <v>1</v>
       </c>
       <c r="T48" t="s">
-        <v>391</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
       <c r="B49" t="s">
-        <v>441</v>
-      </c>
-      <c r="C49" t="s">
-        <v>547</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>458</v>
+        <v>25</v>
       </c>
       <c r="G49" t="s">
-        <v>548</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" t="s">
+        <v>51</v>
+      </c>
+      <c r="K49" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>23128</v>
+      </c>
+      <c r="R49">
+        <v>0.23950105766746149</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>524</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s">
+        <v>507</v>
+      </c>
+      <c r="G50" t="s">
+        <v>525</v>
+      </c>
+      <c r="H50" t="s">
         <v>460</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K50" t="s">
         <v>461</v>
       </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49" s="2">
-        <v>32763</v>
-      </c>
-      <c r="O49" t="s">
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" s="2">
+        <v>24428</v>
+      </c>
+      <c r="O50" t="s">
         <v>462</v>
       </c>
-      <c r="P49" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>549</v>
-      </c>
-      <c r="R49">
-        <v>0.30759490941673351</v>
-      </c>
-      <c r="S49">
-        <v>1</v>
-      </c>
-      <c r="T49" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>211</v>
-      </c>
-      <c r="B50" t="s">
-        <v>212</v>
-      </c>
-      <c r="C50" t="s">
-        <v>213</v>
-      </c>
-      <c r="D50" t="s">
-        <v>214</v>
-      </c>
-      <c r="E50" t="s">
-        <v>215</v>
-      </c>
-      <c r="F50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s">
-        <v>216</v>
-      </c>
-      <c r="H50" t="s">
-        <v>27</v>
-      </c>
-      <c r="I50" t="s">
-        <v>28</v>
-      </c>
-      <c r="J50" t="s">
-        <v>217</v>
-      </c>
-      <c r="K50" t="s">
-        <v>30</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
-        <v>21930</v>
+      <c r="P50" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>526</v>
       </c>
       <c r="R50">
-        <v>0.23179683913282861</v>
+        <v>0.24805758920855711</v>
       </c>
       <c r="S50">
         <v>1</v>
       </c>
       <c r="T50" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>321</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s">
-        <v>322</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>323</v>
+        <v>225</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" t="s">
-        <v>324</v>
+        <v>106</v>
       </c>
       <c r="F51" t="s">
         <v>25</v>
       </c>
       <c r="G51" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
       <c r="H51" t="s">
         <v>27</v>
@@ -4701,7 +4686,7 @@
         <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
       <c r="K51" t="s">
         <v>30</v>
@@ -4710,139 +4695,136 @@
         <v>0</v>
       </c>
       <c r="M51" s="2">
-        <v>21868</v>
+        <v>24464</v>
       </c>
       <c r="R51">
-        <v>0.2314028709329273</v>
+        <v>0.24829743055312861</v>
       </c>
       <c r="S51">
         <v>1</v>
       </c>
       <c r="T51" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>550</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>551</v>
+        <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>458</v>
+        <v>25</v>
       </c>
       <c r="G52" t="s">
-        <v>552</v>
+        <v>71</v>
       </c>
       <c r="H52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" t="s">
+        <v>72</v>
+      </c>
+      <c r="K52" t="s">
+        <v>30</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>24603</v>
+      </c>
+      <c r="R52">
+        <v>0.24922494116124369</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" t="s">
+        <v>527</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" t="s">
+        <v>528</v>
+      </c>
+      <c r="F53" t="s">
+        <v>529</v>
+      </c>
+      <c r="G53" t="s">
+        <v>530</v>
+      </c>
+      <c r="H53" t="s">
         <v>460</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K53" t="s">
         <v>461</v>
       </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52" s="2">
-        <v>22142</v>
-      </c>
-      <c r="O52" t="s">
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" s="2">
+        <v>24880</v>
+      </c>
+      <c r="O53" t="s">
         <v>462</v>
       </c>
-      <c r="P52" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>553</v>
-      </c>
-      <c r="R52">
-        <v>0.2331474922733347</v>
-      </c>
-      <c r="S52">
-        <v>1</v>
-      </c>
-      <c r="T52" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C53" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" t="s">
-        <v>118</v>
-      </c>
-      <c r="E53" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" t="s">
-        <v>147</v>
-      </c>
-      <c r="H53" t="s">
-        <v>27</v>
-      </c>
-      <c r="I53" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" t="s">
-        <v>148</v>
-      </c>
-      <c r="K53" t="s">
-        <v>30</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2">
-        <v>33735</v>
+      <c r="P53" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>531</v>
       </c>
       <c r="R53">
-        <v>0.31503563743668939</v>
+        <v>0.25108018042342273</v>
       </c>
       <c r="S53">
         <v>1</v>
       </c>
       <c r="T53" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>435</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>436</v>
-      </c>
-      <c r="C54" t="s">
-        <v>437</v>
+        <v>151</v>
       </c>
       <c r="D54" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" t="s">
         <v>106</v>
-      </c>
-      <c r="E54" t="s">
-        <v>36</v>
       </c>
       <c r="F54" t="s">
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>438</v>
+        <v>153</v>
       </c>
       <c r="H54" t="s">
         <v>27</v>
@@ -4851,7 +4833,7 @@
         <v>28</v>
       </c>
       <c r="J54" t="s">
-        <v>439</v>
+        <v>154</v>
       </c>
       <c r="K54" t="s">
         <v>30</v>
@@ -4860,139 +4842,139 @@
         <v>0</v>
       </c>
       <c r="M54" s="2">
-        <v>33882</v>
+        <v>24779</v>
       </c>
       <c r="R54">
-        <v>0.31616936753060321</v>
+        <v>0.25040265934035272</v>
       </c>
       <c r="S54">
         <v>1</v>
       </c>
       <c r="T54" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>554</v>
+        <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>424</v>
+        <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="F55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s">
+        <v>64</v>
+      </c>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>24902</v>
+      </c>
+      <c r="R55">
+        <v>0.25122792079360201</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>520</v>
+      </c>
+      <c r="C56" t="s">
+        <v>532</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" t="s">
+        <v>215</v>
+      </c>
+      <c r="F56" t="s">
         <v>529</v>
       </c>
-      <c r="G55" t="s">
-        <v>555</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="G56" t="s">
+        <v>533</v>
+      </c>
+      <c r="H56" t="s">
         <v>460</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K56" t="s">
         <v>461</v>
       </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55" s="2">
-        <v>33923</v>
-      </c>
-      <c r="O55" t="s">
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2">
+        <v>25266</v>
+      </c>
+      <c r="O56" t="s">
         <v>462</v>
       </c>
-      <c r="P55" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>556</v>
-      </c>
-      <c r="R55">
-        <v>0.31648596894724362</v>
-      </c>
-      <c r="S55">
-        <v>1</v>
-      </c>
-      <c r="T55" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" t="s">
-        <v>42</v>
-      </c>
-      <c r="F56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" t="s">
-        <v>96</v>
-      </c>
-      <c r="H56" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" t="s">
-        <v>97</v>
-      </c>
-      <c r="K56" t="s">
-        <v>30</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56" s="2">
-        <v>28666</v>
+      <c r="P56" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>534</v>
       </c>
       <c r="R56">
-        <v>0.27734376799606369</v>
+        <v>0.25368072633234118</v>
       </c>
       <c r="S56">
         <v>1</v>
       </c>
       <c r="T56" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="F57" t="s">
         <v>25</v>
       </c>
       <c r="G57" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H57" t="s">
         <v>27</v>
@@ -5001,7 +4983,7 @@
         <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="K57" t="s">
         <v>30</v>
@@ -5010,136 +4992,136 @@
         <v>0</v>
       </c>
       <c r="M57" s="2">
-        <v>27348</v>
+        <v>25196</v>
       </c>
       <c r="R57">
-        <v>0.2680111588747372</v>
+        <v>0.25320780763044243</v>
       </c>
       <c r="S57">
         <v>1</v>
       </c>
       <c r="T57" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>348</v>
+      </c>
       <c r="B58" t="s">
-        <v>557</v>
-      </c>
-      <c r="C58" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="D58" t="s">
-        <v>558</v>
+        <v>152</v>
+      </c>
+      <c r="E58" t="s">
+        <v>55</v>
       </c>
       <c r="F58" t="s">
-        <v>458</v>
+        <v>25</v>
       </c>
       <c r="G58" t="s">
-        <v>559</v>
+        <v>350</v>
       </c>
       <c r="H58" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" t="s">
+        <v>351</v>
+      </c>
+      <c r="K58" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>25226</v>
+      </c>
+      <c r="R58">
+        <v>0.25341041570080958</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>520</v>
+      </c>
+      <c r="C59" t="s">
+        <v>535</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" t="s">
+        <v>536</v>
+      </c>
+      <c r="F59" t="s">
+        <v>529</v>
+      </c>
+      <c r="G59" t="s">
+        <v>537</v>
+      </c>
+      <c r="H59" t="s">
         <v>460</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K59" t="s">
         <v>461</v>
       </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58" s="2">
-        <v>28563</v>
-      </c>
-      <c r="O58" t="s">
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2">
+        <v>34132</v>
+      </c>
+      <c r="O59" t="s">
         <v>462</v>
       </c>
-      <c r="P58" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>560</v>
-      </c>
-      <c r="R58">
-        <v>0.27660726375261291</v>
-      </c>
-      <c r="S58">
-        <v>1</v>
-      </c>
-      <c r="T58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s">
-        <v>113</v>
-      </c>
-      <c r="H59" t="s">
-        <v>27</v>
-      </c>
-      <c r="I59" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" t="s">
-        <v>114</v>
-      </c>
-      <c r="K59" t="s">
-        <v>30</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2">
-        <v>20838</v>
+      <c r="P59" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>538</v>
       </c>
       <c r="R59">
-        <v>0.22492650985415699</v>
+        <v>0.31810250417422081</v>
       </c>
       <c r="S59">
         <v>1</v>
       </c>
       <c r="T59" t="s">
-        <v>115</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E60" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="F60" t="s">
         <v>25</v>
       </c>
       <c r="G60" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="H60" t="s">
         <v>27</v>
@@ -5148,7 +5130,7 @@
         <v>28</v>
       </c>
       <c r="J60" t="s">
-        <v>160</v>
+        <v>258</v>
       </c>
       <c r="K60" t="s">
         <v>30</v>
@@ -5157,136 +5139,133 @@
         <v>0</v>
       </c>
       <c r="M60" s="2">
-        <v>20445</v>
+        <v>33953</v>
       </c>
       <c r="R60">
-        <v>0.2224895988028095</v>
+        <v>0.31671773633671579</v>
       </c>
       <c r="S60">
         <v>1</v>
       </c>
       <c r="T60" t="s">
-        <v>115</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>410</v>
+      </c>
       <c r="B61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" t="s">
-        <v>561</v>
+        <v>411</v>
       </c>
       <c r="D61" t="s">
-        <v>448</v>
+        <v>23</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="F61" t="s">
-        <v>458</v>
+        <v>25</v>
       </c>
       <c r="G61" t="s">
-        <v>562</v>
+        <v>412</v>
       </c>
       <c r="H61" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61" t="s">
+        <v>413</v>
+      </c>
+      <c r="K61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <v>34366</v>
+      </c>
+      <c r="R61">
+        <v>0.31991761811915248</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>539</v>
+      </c>
+      <c r="D62" t="s">
+        <v>540</v>
+      </c>
+      <c r="E62" t="s">
+        <v>541</v>
+      </c>
+      <c r="F62" t="s">
+        <v>529</v>
+      </c>
+      <c r="G62" t="s">
+        <v>542</v>
+      </c>
+      <c r="H62" t="s">
         <v>460</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K62" t="s">
         <v>461</v>
       </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61" s="2">
-        <v>20458</v>
-      </c>
-      <c r="O61" t="s">
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2">
+        <v>29766</v>
+      </c>
+      <c r="O62" t="s">
         <v>462</v>
       </c>
-      <c r="P61" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>563</v>
-      </c>
-      <c r="R61">
-        <v>0.22256990684752639</v>
-      </c>
-      <c r="S61">
-        <v>1</v>
-      </c>
-      <c r="T61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>189</v>
-      </c>
-      <c r="B62" t="s">
-        <v>156</v>
-      </c>
-      <c r="C62" t="s">
-        <v>190</v>
-      </c>
-      <c r="D62" t="s">
-        <v>191</v>
-      </c>
-      <c r="F62" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" t="s">
-        <v>192</v>
-      </c>
-      <c r="H62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" t="s">
-        <v>193</v>
-      </c>
-      <c r="K62" t="s">
-        <v>30</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62" s="2">
-        <v>22143</v>
+      <c r="P62" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>543</v>
       </c>
       <c r="R62">
-        <v>0.23315387623938361</v>
+        <v>0.28528421737621479</v>
       </c>
       <c r="S62">
         <v>1</v>
       </c>
       <c r="T62" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="C63" t="s">
-        <v>266</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" t="s">
         <v>152</v>
-      </c>
-      <c r="E63" t="s">
-        <v>36</v>
       </c>
       <c r="F63" t="s">
         <v>25</v>
       </c>
       <c r="G63" t="s">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="H63" t="s">
         <v>27</v>
@@ -5295,7 +5274,7 @@
         <v>28</v>
       </c>
       <c r="J63" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="K63" t="s">
         <v>30</v>
@@ -5304,139 +5283,136 @@
         <v>0</v>
       </c>
       <c r="M63" s="2">
-        <v>22564</v>
+        <v>28401</v>
       </c>
       <c r="R63">
-        <v>0.23585232507029011</v>
+        <v>0.27545132575860642</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>206</v>
+      </c>
       <c r="B64" t="s">
-        <v>172</v>
-      </c>
-      <c r="C64" t="s">
-        <v>564</v>
+        <v>207</v>
       </c>
       <c r="D64" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E64" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="F64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s">
+        <v>209</v>
+      </c>
+      <c r="H64" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64" t="s">
+        <v>210</v>
+      </c>
+      <c r="K64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2">
+        <v>29962</v>
+      </c>
+      <c r="R64">
+        <v>0.2867133164808125</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>544</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" t="s">
+        <v>540</v>
+      </c>
+      <c r="E65" t="s">
+        <v>424</v>
+      </c>
+      <c r="F65" t="s">
         <v>458</v>
       </c>
-      <c r="G64" t="s">
-        <v>565</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G65" t="s">
+        <v>545</v>
+      </c>
+      <c r="H65" t="s">
         <v>460</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K65" t="s">
         <v>461</v>
       </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64" s="2">
-        <v>22293</v>
-      </c>
-      <c r="O64" t="s">
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2">
+        <v>31125</v>
+      </c>
+      <c r="O65" t="s">
         <v>462</v>
       </c>
-      <c r="P64" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>566</v>
-      </c>
-      <c r="R64">
-        <v>0.23411284855107739</v>
-      </c>
-      <c r="S64">
-        <v>1</v>
-      </c>
-      <c r="T64" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65" t="s">
-        <v>140</v>
-      </c>
-      <c r="E65" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" t="s">
-        <v>141</v>
-      </c>
-      <c r="H65" t="s">
-        <v>27</v>
-      </c>
-      <c r="I65" t="s">
-        <v>28</v>
-      </c>
-      <c r="J65" t="s">
-        <v>142</v>
-      </c>
-      <c r="K65" t="s">
-        <v>30</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65" s="2">
-        <v>25501</v>
+      <c r="P65" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>546</v>
       </c>
       <c r="R65">
-        <v>0.25527264117303933</v>
+        <v>0.29528046433563943</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E66" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="F66" t="s">
         <v>25</v>
       </c>
       <c r="G66" t="s">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="H66" t="s">
         <v>27</v>
@@ -5445,7 +5421,7 @@
         <v>28</v>
       </c>
       <c r="J66" t="s">
-        <v>223</v>
+        <v>29</v>
       </c>
       <c r="K66" t="s">
         <v>30</v>
@@ -5454,139 +5430,139 @@
         <v>0</v>
       </c>
       <c r="M66" s="2">
-        <v>26790</v>
+        <v>30531</v>
       </c>
       <c r="R66">
-        <v>0.26412054329749679</v>
+        <v>0.29088622732304198</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
       <c r="T66" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>296</v>
+      </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>297</v>
       </c>
       <c r="C67" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="D67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>299</v>
       </c>
       <c r="F67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s">
+        <v>300</v>
+      </c>
+      <c r="H67" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" t="s">
+        <v>28</v>
+      </c>
+      <c r="J67" t="s">
+        <v>301</v>
+      </c>
+      <c r="K67" t="s">
+        <v>30</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <v>31090</v>
+      </c>
+      <c r="R67">
+        <v>0.29502047726102038</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>441</v>
+      </c>
+      <c r="C68" t="s">
+        <v>547</v>
+      </c>
+      <c r="D68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" t="s">
         <v>458</v>
       </c>
-      <c r="G67" t="s">
-        <v>567</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="G68" t="s">
+        <v>548</v>
+      </c>
+      <c r="H68" t="s">
         <v>460</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K68" t="s">
         <v>461</v>
       </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67" s="2">
-        <v>26672</v>
-      </c>
-      <c r="O67" t="s">
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68" s="2">
+        <v>32763</v>
+      </c>
+      <c r="O68" t="s">
         <v>462</v>
       </c>
-      <c r="P67" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>568</v>
-      </c>
-      <c r="R67">
-        <v>0.26330245032504018</v>
-      </c>
-      <c r="S67">
-        <v>1</v>
-      </c>
-      <c r="T67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>269</v>
-      </c>
-      <c r="B68" t="s">
-        <v>270</v>
-      </c>
-      <c r="C68" t="s">
-        <v>271</v>
-      </c>
-      <c r="D68" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" t="s">
-        <v>36</v>
-      </c>
-      <c r="F68" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" t="s">
-        <v>272</v>
-      </c>
-      <c r="H68" t="s">
-        <v>27</v>
-      </c>
-      <c r="I68" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" t="s">
-        <v>273</v>
-      </c>
-      <c r="K68" t="s">
-        <v>30</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68" s="2">
-        <v>34511</v>
+      <c r="P68" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>549</v>
       </c>
       <c r="R68">
-        <v>0.32104511580770911</v>
+        <v>0.30759490941673351</v>
       </c>
       <c r="S68">
         <v>1</v>
       </c>
       <c r="T68" t="s">
-        <v>274</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>275</v>
+        <v>385</v>
       </c>
       <c r="B69" t="s">
-        <v>276</v>
+        <v>386</v>
       </c>
       <c r="C69" t="s">
-        <v>277</v>
+        <v>387</v>
       </c>
       <c r="D69" t="s">
-        <v>278</v>
+        <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>388</v>
       </c>
       <c r="F69" t="s">
         <v>25</v>
       </c>
       <c r="G69" t="s">
-        <v>279</v>
+        <v>389</v>
       </c>
       <c r="H69" t="s">
         <v>27</v>
@@ -5595,7 +5571,7 @@
         <v>28</v>
       </c>
       <c r="J69" t="s">
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="K69" t="s">
         <v>30</v>
@@ -5604,133 +5580,136 @@
         <v>0</v>
       </c>
       <c r="M69" s="2">
-        <v>34474</v>
+        <v>32634</v>
       </c>
       <c r="R69">
-        <v>0.32075721040152388</v>
+        <v>0.30661477088797989</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69" t="s">
-        <v>274</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>392</v>
+      </c>
       <c r="B70" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="D70" t="s">
-        <v>468</v>
+        <v>394</v>
+      </c>
+      <c r="E70" t="s">
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>458</v>
+        <v>25</v>
       </c>
       <c r="G70" t="s">
-        <v>469</v>
+        <v>395</v>
       </c>
       <c r="H70" t="s">
-        <v>460</v>
+        <v>27</v>
+      </c>
+      <c r="I70" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" t="s">
+        <v>396</v>
       </c>
       <c r="K70" t="s">
-        <v>461</v>
+        <v>30</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" s="2">
-        <v>34576</v>
-      </c>
-      <c r="O70" t="s">
-        <v>462</v>
-      </c>
-      <c r="P70" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>470</v>
+        <v>32704</v>
       </c>
       <c r="R70">
-        <v>0.32155122520553903</v>
+        <v>0.30714641288539501</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70" t="s">
-        <v>274</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>183</v>
-      </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="C71" t="s">
         <v>185</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>550</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>551</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
+        <v>458</v>
       </c>
       <c r="G71" t="s">
-        <v>186</v>
+        <v>552</v>
       </c>
       <c r="H71" t="s">
-        <v>27</v>
-      </c>
-      <c r="I71" t="s">
-        <v>28</v>
-      </c>
-      <c r="J71" t="s">
-        <v>187</v>
+        <v>460</v>
       </c>
       <c r="K71" t="s">
-        <v>30</v>
+        <v>461</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" s="2">
-        <v>32688</v>
+        <v>22142</v>
+      </c>
+      <c r="O71" t="s">
+        <v>462</v>
+      </c>
+      <c r="P71" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>553</v>
       </c>
       <c r="R71">
-        <v>0.30702484947331071</v>
+        <v>0.2331474922733347</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>322</v>
       </c>
       <c r="C72" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D72" t="s">
         <v>55</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="F72" t="s">
         <v>25</v>
       </c>
       <c r="G72" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H72" t="s">
         <v>27</v>
@@ -5739,7 +5718,7 @@
         <v>28</v>
       </c>
       <c r="J72" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K72" t="s">
         <v>30</v>
@@ -5748,136 +5727,139 @@
         <v>0</v>
       </c>
       <c r="M72" s="2">
-        <v>33140</v>
+        <v>21868</v>
       </c>
       <c r="R72">
-        <v>0.31046929018279712</v>
+        <v>0.2314028709329273</v>
       </c>
       <c r="S72">
         <v>1</v>
       </c>
       <c r="T72" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>211</v>
+      </c>
       <c r="B73" t="s">
-        <v>569</v>
+        <v>212</v>
+      </c>
+      <c r="C73" t="s">
+        <v>213</v>
       </c>
       <c r="D73" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" t="s">
+        <v>215</v>
+      </c>
+      <c r="F73" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s">
+        <v>216</v>
+      </c>
+      <c r="H73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" t="s">
+        <v>28</v>
+      </c>
+      <c r="J73" t="s">
+        <v>217</v>
+      </c>
+      <c r="K73" t="s">
+        <v>30</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" s="2">
+        <v>21930</v>
+      </c>
+      <c r="R73">
+        <v>0.23179683913282861</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" t="s">
+        <v>554</v>
+      </c>
+      <c r="D74" t="s">
         <v>424</v>
       </c>
-      <c r="E73" t="s">
-        <v>208</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="E74" t="s">
+        <v>179</v>
+      </c>
+      <c r="F74" t="s">
         <v>529</v>
       </c>
-      <c r="G73" t="s">
-        <v>570</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="G74" t="s">
+        <v>555</v>
+      </c>
+      <c r="H74" t="s">
         <v>460</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K74" t="s">
         <v>461</v>
       </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73" s="2">
-        <v>32744</v>
-      </c>
-      <c r="O73" t="s">
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74" s="2">
+        <v>33923</v>
+      </c>
+      <c r="O74" t="s">
         <v>462</v>
       </c>
-      <c r="P73" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>571</v>
-      </c>
-      <c r="R73">
-        <v>0.30745043859768462</v>
-      </c>
-      <c r="S73">
-        <v>1</v>
-      </c>
-      <c r="T73" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>291</v>
-      </c>
-      <c r="B74" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" t="s">
-        <v>292</v>
-      </c>
-      <c r="D74" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" t="s">
-        <v>118</v>
-      </c>
-      <c r="F74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" t="s">
-        <v>293</v>
-      </c>
-      <c r="H74" t="s">
-        <v>27</v>
-      </c>
-      <c r="I74" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74" t="s">
-        <v>294</v>
-      </c>
-      <c r="K74" t="s">
-        <v>30</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74" s="2">
-        <v>31238</v>
+      <c r="P74" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>556</v>
       </c>
       <c r="R74">
-        <v>0.29612075898171469</v>
+        <v>0.31648596894724362</v>
       </c>
       <c r="S74">
         <v>1</v>
       </c>
       <c r="T74" t="s">
-        <v>295</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>364</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>365</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>366</v>
+        <v>146</v>
       </c>
       <c r="D75" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" t="s">
         <v>83</v>
-      </c>
-      <c r="E75" t="s">
-        <v>56</v>
       </c>
       <c r="F75" t="s">
         <v>25</v>
       </c>
       <c r="G75" t="s">
-        <v>367</v>
+        <v>147</v>
       </c>
       <c r="H75" t="s">
         <v>27</v>
@@ -5886,7 +5868,7 @@
         <v>28</v>
       </c>
       <c r="J75" t="s">
-        <v>368</v>
+        <v>148</v>
       </c>
       <c r="K75" t="s">
         <v>30</v>
@@ -5895,127 +5877,127 @@
         <v>0</v>
       </c>
       <c r="M75" s="2">
-        <v>31014</v>
+        <v>33735</v>
       </c>
       <c r="R75">
-        <v>0.29445639255937051</v>
+        <v>0.31503563743668939</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75" t="s">
-        <v>295</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>435</v>
+      </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>436</v>
       </c>
       <c r="C76" t="s">
-        <v>572</v>
+        <v>437</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="E76" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H76" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" t="s">
+        <v>28</v>
+      </c>
+      <c r="J76" t="s">
+        <v>439</v>
+      </c>
+      <c r="K76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" s="2">
+        <v>33882</v>
+      </c>
+      <c r="R76">
+        <v>0.31616936753060321</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>557</v>
+      </c>
+      <c r="C77" t="s">
+        <v>329</v>
+      </c>
+      <c r="D77" t="s">
+        <v>558</v>
+      </c>
+      <c r="F77" t="s">
         <v>458</v>
       </c>
-      <c r="G76" t="s">
-        <v>573</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="G77" t="s">
+        <v>559</v>
+      </c>
+      <c r="H77" t="s">
         <v>460</v>
       </c>
-      <c r="K76" t="s">
-        <v>574</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76" s="2">
-        <v>31321</v>
-      </c>
-      <c r="O76" t="s">
+      <c r="K77" t="s">
+        <v>461</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77" s="2">
+        <v>28563</v>
+      </c>
+      <c r="O77" t="s">
         <v>462</v>
       </c>
-      <c r="P76" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>575</v>
-      </c>
-      <c r="R76">
-        <v>0.29673884812288109</v>
-      </c>
-      <c r="S76">
-        <v>1</v>
-      </c>
-      <c r="T76" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>333</v>
-      </c>
-      <c r="B77" t="s">
-        <v>229</v>
-      </c>
-      <c r="C77" t="s">
-        <v>334</v>
-      </c>
-      <c r="D77" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" t="s">
-        <v>83</v>
-      </c>
-      <c r="F77" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" t="s">
-        <v>231</v>
-      </c>
-      <c r="H77" t="s">
-        <v>27</v>
-      </c>
-      <c r="I77" t="s">
-        <v>28</v>
-      </c>
-      <c r="J77" t="s">
-        <v>335</v>
-      </c>
-      <c r="K77" t="s">
-        <v>30</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77" s="2">
-        <v>32025</v>
+      <c r="P77" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>560</v>
       </c>
       <c r="R77">
-        <v>0.30201125873785972</v>
+        <v>0.27660726375261291</v>
       </c>
       <c r="S77">
         <v>1</v>
       </c>
       <c r="T77" t="s">
-        <v>336</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>418</v>
+        <v>167</v>
       </c>
       <c r="B78" t="s">
-        <v>419</v>
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
+        <v>111</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="E78" t="s">
         <v>55</v>
@@ -6024,7 +6006,7 @@
         <v>25</v>
       </c>
       <c r="G78" t="s">
-        <v>420</v>
+        <v>169</v>
       </c>
       <c r="H78" t="s">
         <v>27</v>
@@ -6033,7 +6015,7 @@
         <v>28</v>
       </c>
       <c r="J78" t="s">
-        <v>421</v>
+        <v>170</v>
       </c>
       <c r="K78" t="s">
         <v>30</v>
@@ -6042,139 +6024,139 @@
         <v>0</v>
       </c>
       <c r="M78" s="2">
-        <v>31195</v>
+        <v>27348</v>
       </c>
       <c r="R78">
-        <v>0.29580083757892012</v>
+        <v>0.2680111588747372</v>
       </c>
       <c r="S78">
         <v>1</v>
       </c>
       <c r="T78" t="s">
-        <v>336</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C79" t="s">
-        <v>576</v>
+        <v>95</v>
       </c>
       <c r="D79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" t="s">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s">
+        <v>96</v>
+      </c>
+      <c r="H79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" t="s">
+        <v>97</v>
+      </c>
+      <c r="K79" t="s">
+        <v>30</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79" s="2">
+        <v>28666</v>
+      </c>
+      <c r="R79">
+        <v>0.27734376799606369</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" t="s">
+        <v>561</v>
+      </c>
+      <c r="D80" t="s">
+        <v>448</v>
+      </c>
+      <c r="E80" t="s">
         <v>36</v>
       </c>
-      <c r="E79" t="s">
-        <v>577</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>458</v>
       </c>
-      <c r="G79" t="s">
-        <v>573</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="G80" t="s">
+        <v>562</v>
+      </c>
+      <c r="H80" t="s">
         <v>460</v>
       </c>
-      <c r="K79" t="s">
-        <v>574</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79" s="2">
-        <v>31321</v>
-      </c>
-      <c r="O79" t="s">
+      <c r="K80" t="s">
+        <v>461</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80" s="2">
+        <v>20458</v>
+      </c>
+      <c r="O80" t="s">
         <v>462</v>
       </c>
-      <c r="P79" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>578</v>
-      </c>
-      <c r="R79">
-        <v>0.29673884812288109</v>
-      </c>
-      <c r="S79">
-        <v>1</v>
-      </c>
-      <c r="T79" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>250</v>
-      </c>
-      <c r="B80" t="s">
-        <v>251</v>
-      </c>
-      <c r="C80" t="s">
-        <v>62</v>
-      </c>
-      <c r="D80" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" t="s">
-        <v>191</v>
-      </c>
-      <c r="F80" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" t="s">
-        <v>252</v>
-      </c>
-      <c r="H80" t="s">
-        <v>27</v>
-      </c>
-      <c r="I80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J80" t="s">
-        <v>253</v>
-      </c>
-      <c r="K80" t="s">
-        <v>30</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80" s="2">
-        <v>34379</v>
+      <c r="P80" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>563</v>
       </c>
       <c r="R80">
-        <v>0.32001861853709201</v>
+        <v>0.22256990684752639</v>
       </c>
       <c r="S80">
         <v>1</v>
       </c>
       <c r="T80" t="s">
-        <v>254</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>342</v>
+        <v>155</v>
       </c>
       <c r="B81" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="C81" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E81" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="F81" t="s">
         <v>25</v>
       </c>
       <c r="G81" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="H81" t="s">
         <v>27</v>
@@ -6183,7 +6165,7 @@
         <v>28</v>
       </c>
       <c r="J81" t="s">
-        <v>253</v>
+        <v>160</v>
       </c>
       <c r="K81" t="s">
         <v>30</v>
@@ -6192,136 +6174,136 @@
         <v>0</v>
       </c>
       <c r="M81" s="2">
-        <v>34379</v>
+        <v>20445</v>
       </c>
       <c r="R81">
-        <v>0.32001861853709201</v>
+        <v>0.2224895988028095</v>
       </c>
       <c r="S81">
         <v>1</v>
       </c>
       <c r="T81" t="s">
-        <v>254</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>110</v>
+      </c>
       <c r="B82" t="s">
         <v>111</v>
       </c>
       <c r="C82" t="s">
-        <v>579</v>
+        <v>112</v>
       </c>
       <c r="D82" t="s">
-        <v>580</v>
+        <v>106</v>
+      </c>
+      <c r="E82" t="s">
+        <v>36</v>
       </c>
       <c r="F82" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s">
+        <v>113</v>
+      </c>
+      <c r="H82" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82" t="s">
+        <v>28</v>
+      </c>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+      <c r="K82" t="s">
+        <v>30</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2">
+        <v>20838</v>
+      </c>
+      <c r="R82">
+        <v>0.22492650985415699</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" t="s">
+        <v>564</v>
+      </c>
+      <c r="D83" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" t="s">
         <v>458</v>
       </c>
-      <c r="G82" t="s">
-        <v>581</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="G83" t="s">
+        <v>565</v>
+      </c>
+      <c r="H83" t="s">
         <v>460</v>
       </c>
-      <c r="K82" t="s">
-        <v>574</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82" s="2">
-        <v>34419</v>
-      </c>
-      <c r="O82" t="s">
+      <c r="K83" t="s">
+        <v>461</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83" s="2">
+        <v>22293</v>
+      </c>
+      <c r="O83" t="s">
         <v>462</v>
       </c>
-      <c r="P82" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>582</v>
-      </c>
-      <c r="R82">
-        <v>0.32032949488284979</v>
-      </c>
-      <c r="S82">
-        <v>1</v>
-      </c>
-      <c r="T82" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>195</v>
-      </c>
-      <c r="B83" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" t="s">
-        <v>196</v>
-      </c>
-      <c r="D83" t="s">
-        <v>83</v>
-      </c>
-      <c r="E83" t="s">
-        <v>152</v>
-      </c>
-      <c r="F83" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" t="s">
-        <v>197</v>
-      </c>
-      <c r="H83" t="s">
-        <v>27</v>
-      </c>
-      <c r="I83" t="s">
-        <v>28</v>
-      </c>
-      <c r="J83" t="s">
-        <v>198</v>
-      </c>
-      <c r="K83" t="s">
-        <v>30</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83" s="2">
-        <v>23075</v>
+      <c r="P83" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>566</v>
       </c>
       <c r="R83">
-        <v>0.23915653993026359</v>
+        <v>0.23411284855107739</v>
       </c>
       <c r="S83">
         <v>1</v>
       </c>
       <c r="T83" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="B84" t="s">
-        <v>282</v>
+        <v>156</v>
       </c>
       <c r="C84" t="s">
-        <v>283</v>
+        <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>55</v>
-      </c>
-      <c r="E84" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F84" t="s">
         <v>25</v>
       </c>
       <c r="G84" t="s">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="H84" t="s">
         <v>27</v>
@@ -6330,7 +6312,7 @@
         <v>28</v>
       </c>
       <c r="J84" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="K84" t="s">
         <v>30</v>
@@ -6339,139 +6321,139 @@
         <v>0</v>
       </c>
       <c r="M84" s="2">
-        <v>23788</v>
+        <v>22143</v>
       </c>
       <c r="R84">
-        <v>0.24381970688576779</v>
+        <v>0.23315387623938361</v>
       </c>
       <c r="S84">
         <v>1</v>
       </c>
       <c r="T84" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>265</v>
+      </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="C85" t="s">
-        <v>583</v>
+        <v>266</v>
       </c>
       <c r="D85" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="E85" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s">
+        <v>267</v>
+      </c>
+      <c r="H85" t="s">
+        <v>27</v>
+      </c>
+      <c r="I85" t="s">
+        <v>28</v>
+      </c>
+      <c r="J85" t="s">
+        <v>268</v>
+      </c>
+      <c r="K85" t="s">
+        <v>30</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
+        <v>22564</v>
+      </c>
+      <c r="R85">
+        <v>0.23585232507029011</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" t="s">
+        <v>323</v>
+      </c>
+      <c r="D86" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" t="s">
+        <v>106</v>
+      </c>
+      <c r="F86" t="s">
         <v>458</v>
       </c>
-      <c r="G85" t="s">
-        <v>584</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="G86" t="s">
+        <v>567</v>
+      </c>
+      <c r="H86" t="s">
         <v>460</v>
       </c>
-      <c r="K85" t="s">
-        <v>574</v>
-      </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-      <c r="M85" s="2">
-        <v>23783</v>
-      </c>
-      <c r="O85" t="s">
+      <c r="K86" t="s">
+        <v>461</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86" s="2">
+        <v>26672</v>
+      </c>
+      <c r="O86" t="s">
         <v>462</v>
       </c>
-      <c r="P85" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>585</v>
-      </c>
-      <c r="R85">
-        <v>0.2437867923192043</v>
-      </c>
-      <c r="S85">
-        <v>1</v>
-      </c>
-      <c r="T85" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>99</v>
-      </c>
-      <c r="B86" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" t="s">
-        <v>100</v>
-      </c>
-      <c r="D86" t="s">
-        <v>70</v>
-      </c>
-      <c r="E86" t="s">
-        <v>36</v>
-      </c>
-      <c r="F86" t="s">
-        <v>25</v>
-      </c>
-      <c r="G86" t="s">
-        <v>101</v>
-      </c>
-      <c r="H86" t="s">
-        <v>27</v>
-      </c>
-      <c r="I86" t="s">
-        <v>28</v>
-      </c>
-      <c r="J86" t="s">
-        <v>102</v>
-      </c>
-      <c r="K86" t="s">
-        <v>30</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86" s="2">
-        <v>35958</v>
+      <c r="P86" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>568</v>
       </c>
       <c r="R86">
-        <v>0.33240976520435173</v>
+        <v>0.26330245032504018</v>
       </c>
       <c r="S86">
         <v>1</v>
       </c>
       <c r="T86" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>343</v>
+        <v>137</v>
       </c>
       <c r="B87" t="s">
-        <v>344</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s">
-        <v>345</v>
+        <v>139</v>
       </c>
       <c r="D87" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F87" t="s">
         <v>25</v>
       </c>
       <c r="G87" t="s">
-        <v>346</v>
+        <v>141</v>
       </c>
       <c r="H87" t="s">
         <v>27</v>
@@ -6480,7 +6462,7 @@
         <v>28</v>
       </c>
       <c r="J87" t="s">
-        <v>347</v>
+        <v>142</v>
       </c>
       <c r="K87" t="s">
         <v>30</v>
@@ -6489,130 +6471,127 @@
         <v>0</v>
       </c>
       <c r="M87" s="2">
-        <v>36071</v>
+        <v>25501</v>
       </c>
       <c r="R87">
-        <v>0.3333057470482727</v>
+        <v>0.25527264117303933</v>
       </c>
       <c r="S87">
         <v>1</v>
       </c>
       <c r="T87" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>219</v>
+      </c>
       <c r="B88" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="C88" t="s">
-        <v>586</v>
+        <v>221</v>
       </c>
       <c r="D88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E88" t="s">
-        <v>497</v>
+        <v>158</v>
       </c>
       <c r="F88" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s">
+        <v>222</v>
+      </c>
+      <c r="H88" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" t="s">
+        <v>28</v>
+      </c>
+      <c r="J88" t="s">
+        <v>223</v>
+      </c>
+      <c r="K88" t="s">
+        <v>30</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2">
+        <v>26790</v>
+      </c>
+      <c r="R88">
+        <v>0.26412054329749679</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>569</v>
+      </c>
+      <c r="D89" t="s">
+        <v>424</v>
+      </c>
+      <c r="E89" t="s">
+        <v>208</v>
+      </c>
+      <c r="F89" t="s">
         <v>529</v>
       </c>
-      <c r="G88" t="s">
-        <v>587</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="G89" t="s">
+        <v>570</v>
+      </c>
+      <c r="H89" t="s">
         <v>460</v>
       </c>
-      <c r="K88" t="s">
-        <v>574</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88" s="2">
-        <v>36076</v>
-      </c>
-      <c r="O88" t="s">
+      <c r="K89" t="s">
+        <v>461</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89" s="2">
+        <v>32744</v>
+      </c>
+      <c r="O89" t="s">
         <v>462</v>
       </c>
-      <c r="P88" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>588</v>
-      </c>
-      <c r="R88">
-        <v>0.33334542016147478</v>
-      </c>
-      <c r="S88">
-        <v>1</v>
-      </c>
-      <c r="T88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>260</v>
-      </c>
-      <c r="B89" t="s">
-        <v>145</v>
-      </c>
-      <c r="C89" t="s">
-        <v>261</v>
-      </c>
-      <c r="D89" t="s">
-        <v>106</v>
-      </c>
-      <c r="E89" t="s">
-        <v>83</v>
-      </c>
-      <c r="F89" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" t="s">
-        <v>262</v>
-      </c>
-      <c r="H89" t="s">
-        <v>27</v>
-      </c>
-      <c r="I89" t="s">
-        <v>28</v>
-      </c>
-      <c r="J89" t="s">
-        <v>263</v>
-      </c>
-      <c r="K89" t="s">
-        <v>30</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89" s="2">
-        <v>35163</v>
+      <c r="P89" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>571</v>
       </c>
       <c r="R89">
-        <v>0.32614067486267317</v>
+        <v>0.30745043859768462</v>
       </c>
       <c r="S89">
         <v>1</v>
       </c>
       <c r="T89" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>287</v>
+        <v>184</v>
       </c>
       <c r="C90" t="s">
-        <v>288</v>
+        <v>185</v>
       </c>
       <c r="D90" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="E90" t="s">
         <v>36</v>
@@ -6621,7 +6600,7 @@
         <v>25</v>
       </c>
       <c r="G90" t="s">
-        <v>289</v>
+        <v>186</v>
       </c>
       <c r="H90" t="s">
         <v>27</v>
@@ -6630,7 +6609,7 @@
         <v>28</v>
       </c>
       <c r="J90" t="s">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="K90" t="s">
         <v>30</v>
@@ -6639,139 +6618,139 @@
         <v>0</v>
       </c>
       <c r="M90" s="2">
-        <v>35328</v>
+        <v>32688</v>
       </c>
       <c r="R90">
-        <v>0.32743679664482173</v>
+        <v>0.30702484947331071</v>
       </c>
       <c r="S90">
         <v>1</v>
       </c>
       <c r="T90" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>317</v>
+      </c>
       <c r="B91" t="s">
-        <v>520</v>
+        <v>145</v>
       </c>
       <c r="C91" t="s">
-        <v>589</v>
+        <v>318</v>
       </c>
       <c r="D91" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E91" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="F91" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" t="s">
+        <v>319</v>
+      </c>
+      <c r="H91" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" t="s">
+        <v>28</v>
+      </c>
+      <c r="J91" t="s">
+        <v>320</v>
+      </c>
+      <c r="K91" t="s">
+        <v>30</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
+        <v>33140</v>
+      </c>
+      <c r="R91">
+        <v>0.31046929018279712</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" t="s">
+        <v>572</v>
+      </c>
+      <c r="D92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" t="s">
+        <v>55</v>
+      </c>
+      <c r="F92" t="s">
         <v>458</v>
       </c>
-      <c r="G91" t="s">
-        <v>590</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="G92" t="s">
+        <v>573</v>
+      </c>
+      <c r="H92" t="s">
         <v>460</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K92" t="s">
         <v>574</v>
       </c>
-      <c r="L91">
-        <v>1</v>
-      </c>
-      <c r="M91" s="2">
-        <v>35493</v>
-      </c>
-      <c r="O91" t="s">
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92" s="2">
+        <v>31321</v>
+      </c>
+      <c r="O92" t="s">
         <v>462</v>
       </c>
-      <c r="P91" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>591</v>
-      </c>
-      <c r="R91">
-        <v>0.32873555653320569</v>
-      </c>
-      <c r="S91">
-        <v>1</v>
-      </c>
-      <c r="T91" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>311</v>
-      </c>
-      <c r="B92" t="s">
-        <v>312</v>
-      </c>
-      <c r="C92" t="s">
-        <v>313</v>
-      </c>
-      <c r="D92" t="s">
-        <v>36</v>
-      </c>
-      <c r="E92" t="s">
-        <v>42</v>
-      </c>
-      <c r="F92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G92" t="s">
-        <v>314</v>
-      </c>
-      <c r="H92" t="s">
-        <v>27</v>
-      </c>
-      <c r="I92" t="s">
-        <v>28</v>
-      </c>
-      <c r="J92" t="s">
-        <v>315</v>
-      </c>
-      <c r="K92" t="s">
-        <v>30</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92" s="2">
-        <v>33709</v>
+      <c r="P92" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>575</v>
       </c>
       <c r="R92">
-        <v>0.31483534237118038</v>
+        <v>0.29673884812288109</v>
       </c>
       <c r="S92">
         <v>1</v>
       </c>
       <c r="T92" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>451</v>
+        <v>364</v>
       </c>
       <c r="B93" t="s">
-        <v>452</v>
+        <v>365</v>
       </c>
       <c r="C93" t="s">
-        <v>453</v>
+        <v>366</v>
       </c>
       <c r="D93" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="E93" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="F93" t="s">
         <v>25</v>
       </c>
       <c r="G93" t="s">
-        <v>454</v>
+        <v>367</v>
       </c>
       <c r="H93" t="s">
         <v>27</v>
@@ -6780,7 +6759,7 @@
         <v>28</v>
       </c>
       <c r="J93" t="s">
-        <v>455</v>
+        <v>368</v>
       </c>
       <c r="K93" t="s">
         <v>30</v>
@@ -6789,136 +6768,136 @@
         <v>0</v>
       </c>
       <c r="M93" s="2">
-        <v>33837</v>
+        <v>31014</v>
       </c>
       <c r="R93">
-        <v>0.31582207428164671</v>
+        <v>0.29445639255937051</v>
       </c>
       <c r="S93">
         <v>1</v>
       </c>
       <c r="T93" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>291</v>
+      </c>
       <c r="B94" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="C94" t="s">
-        <v>592</v>
+        <v>292</v>
       </c>
       <c r="D94" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="F94" t="s">
-        <v>472</v>
+        <v>25</v>
       </c>
       <c r="G94" t="s">
-        <v>593</v>
+        <v>293</v>
       </c>
       <c r="H94" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94" t="s">
+        <v>28</v>
+      </c>
+      <c r="J94" t="s">
+        <v>294</v>
+      </c>
+      <c r="K94" t="s">
+        <v>30</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
+        <v>31238</v>
+      </c>
+      <c r="R94">
+        <v>0.29612075898171469</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" t="s">
+        <v>576</v>
+      </c>
+      <c r="D95" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" t="s">
+        <v>577</v>
+      </c>
+      <c r="F95" t="s">
+        <v>458</v>
+      </c>
+      <c r="G95" t="s">
+        <v>573</v>
+      </c>
+      <c r="H95" t="s">
         <v>460</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K95" t="s">
         <v>574</v>
       </c>
-      <c r="L94">
-        <v>1</v>
-      </c>
-      <c r="M94" s="2">
-        <v>33912</v>
-      </c>
-      <c r="O94" t="s">
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95" s="2">
+        <v>31321</v>
+      </c>
+      <c r="O95" t="s">
         <v>462</v>
       </c>
-      <c r="P94" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>594</v>
-      </c>
-      <c r="R94">
-        <v>0.31640101039320428</v>
-      </c>
-      <c r="S94">
-        <v>1</v>
-      </c>
-      <c r="T94" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>238</v>
-      </c>
-      <c r="B95" t="s">
-        <v>239</v>
-      </c>
-      <c r="C95" t="s">
-        <v>240</v>
-      </c>
-      <c r="D95" t="s">
-        <v>118</v>
-      </c>
-      <c r="E95" t="s">
-        <v>70</v>
-      </c>
-      <c r="F95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" t="s">
-        <v>241</v>
-      </c>
-      <c r="H95" t="s">
-        <v>27</v>
-      </c>
-      <c r="I95" t="s">
-        <v>28</v>
-      </c>
-      <c r="J95" t="s">
-        <v>242</v>
-      </c>
-      <c r="K95" t="s">
-        <v>30</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95" s="2">
-        <v>23330</v>
+      <c r="P95" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>578</v>
       </c>
       <c r="R95">
-        <v>0.2408172402274539</v>
+        <v>0.29673884812288109</v>
       </c>
       <c r="S95">
         <v>1</v>
       </c>
       <c r="T95" t="s">
-        <v>243</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>352</v>
+        <v>418</v>
       </c>
       <c r="B96" t="s">
-        <v>201</v>
+        <v>419</v>
       </c>
       <c r="D96" t="s">
+        <v>106</v>
+      </c>
+      <c r="E96" t="s">
         <v>55</v>
-      </c>
-      <c r="E96" t="s">
-        <v>179</v>
       </c>
       <c r="F96" t="s">
         <v>25</v>
       </c>
       <c r="G96" t="s">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="H96" t="s">
         <v>27</v>
@@ -6927,7 +6906,7 @@
         <v>28</v>
       </c>
       <c r="J96" t="s">
-        <v>354</v>
+        <v>421</v>
       </c>
       <c r="K96" t="s">
         <v>30</v>
@@ -6936,139 +6915,136 @@
         <v>0</v>
       </c>
       <c r="M96" s="2">
-        <v>23046</v>
+        <v>31195</v>
       </c>
       <c r="R96">
-        <v>0.2389681741164974</v>
+        <v>0.29580083757892012</v>
       </c>
       <c r="S96">
         <v>1</v>
       </c>
       <c r="T96" t="s">
-        <v>243</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>333</v>
+      </c>
       <c r="B97" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="C97" t="s">
-        <v>583</v>
+        <v>334</v>
       </c>
       <c r="D97" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E97" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="F97" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s">
+        <v>231</v>
+      </c>
+      <c r="H97" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" t="s">
+        <v>28</v>
+      </c>
+      <c r="J97" t="s">
+        <v>335</v>
+      </c>
+      <c r="K97" t="s">
+        <v>30</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
+        <v>32025</v>
+      </c>
+      <c r="R97">
+        <v>0.30201125873785972</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" t="s">
+        <v>579</v>
+      </c>
+      <c r="D98" t="s">
+        <v>580</v>
+      </c>
+      <c r="F98" t="s">
         <v>458</v>
       </c>
-      <c r="G97" t="s">
-        <v>584</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="G98" t="s">
+        <v>581</v>
+      </c>
+      <c r="H98" t="s">
         <v>460</v>
       </c>
-      <c r="K97" t="s">
+      <c r="K98" t="s">
         <v>574</v>
       </c>
-      <c r="L97">
-        <v>1</v>
-      </c>
-      <c r="M97" s="2">
-        <v>23783</v>
-      </c>
-      <c r="O97" t="s">
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98" s="2">
+        <v>34419</v>
+      </c>
+      <c r="O98" t="s">
         <v>462</v>
       </c>
-      <c r="P97" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>585</v>
-      </c>
-      <c r="R97">
-        <v>0.2437867923192043</v>
-      </c>
-      <c r="S97">
-        <v>1</v>
-      </c>
-      <c r="T97" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>74</v>
-      </c>
-      <c r="B98" t="s">
-        <v>75</v>
-      </c>
-      <c r="C98" t="s">
-        <v>76</v>
-      </c>
-      <c r="D98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E98" t="s">
-        <v>70</v>
-      </c>
-      <c r="F98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" t="s">
-        <v>78</v>
-      </c>
-      <c r="H98" t="s">
-        <v>27</v>
-      </c>
-      <c r="I98" t="s">
-        <v>28</v>
-      </c>
-      <c r="J98" t="s">
-        <v>79</v>
-      </c>
-      <c r="K98" t="s">
-        <v>30</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98" s="2">
-        <v>31082</v>
+      <c r="P98" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>582</v>
       </c>
       <c r="R98">
-        <v>0.29496107033790242</v>
+        <v>0.32032949488284979</v>
       </c>
       <c r="S98">
         <v>1</v>
       </c>
       <c r="T98" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B99" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C99" t="s">
-        <v>246</v>
+        <v>62</v>
       </c>
       <c r="D99" t="s">
         <v>36</v>
       </c>
       <c r="E99" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
         <v>25</v>
       </c>
       <c r="G99" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H99" t="s">
         <v>27</v>
@@ -7077,7 +7053,7 @@
         <v>28</v>
       </c>
       <c r="J99" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K99" t="s">
         <v>30</v>
@@ -7086,139 +7062,139 @@
         <v>0</v>
       </c>
       <c r="M99" s="2">
-        <v>31242</v>
+        <v>34379</v>
       </c>
       <c r="R99">
-        <v>0.29615052930068508</v>
+        <v>0.32001861853709201</v>
       </c>
       <c r="S99">
         <v>1</v>
       </c>
       <c r="T99" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>342</v>
+      </c>
       <c r="B100" t="s">
-        <v>431</v>
+        <v>251</v>
       </c>
       <c r="C100" t="s">
-        <v>595</v>
+        <v>62</v>
       </c>
       <c r="D100" t="s">
         <v>36</v>
       </c>
       <c r="E100" t="s">
-        <v>596</v>
+        <v>247</v>
       </c>
       <c r="F100" t="s">
-        <v>472</v>
+        <v>25</v>
       </c>
       <c r="G100" t="s">
-        <v>597</v>
+        <v>252</v>
       </c>
       <c r="H100" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" t="s">
+        <v>28</v>
+      </c>
+      <c r="J100" t="s">
+        <v>253</v>
+      </c>
+      <c r="K100" t="s">
+        <v>30</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" s="2">
+        <v>34379</v>
+      </c>
+      <c r="R100">
+        <v>0.32001861853709201</v>
+      </c>
+      <c r="S100">
+        <v>1</v>
+      </c>
+      <c r="T100" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" t="s">
+        <v>583</v>
+      </c>
+      <c r="D101" t="s">
+        <v>70</v>
+      </c>
+      <c r="E101" t="s">
+        <v>158</v>
+      </c>
+      <c r="F101" t="s">
+        <v>458</v>
+      </c>
+      <c r="G101" t="s">
+        <v>584</v>
+      </c>
+      <c r="H101" t="s">
         <v>460</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K101" t="s">
         <v>574</v>
       </c>
-      <c r="L100">
-        <v>1</v>
-      </c>
-      <c r="M100" s="2">
-        <v>31324</v>
-      </c>
-      <c r="O100" t="s">
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101" s="2">
+        <v>23783</v>
+      </c>
+      <c r="O101" t="s">
         <v>462</v>
       </c>
-      <c r="P100" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>598</v>
-      </c>
-      <c r="R100">
-        <v>0.29676120265499739</v>
-      </c>
-      <c r="S100">
-        <v>1</v>
-      </c>
-      <c r="T100" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>161</v>
-      </c>
-      <c r="B101" t="s">
-        <v>162</v>
-      </c>
-      <c r="C101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D101" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" t="s">
-        <v>55</v>
-      </c>
-      <c r="F101" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101" t="s">
-        <v>164</v>
-      </c>
-      <c r="H101" t="s">
-        <v>27</v>
-      </c>
-      <c r="I101" t="s">
-        <v>28</v>
-      </c>
-      <c r="J101" t="s">
-        <v>165</v>
-      </c>
-      <c r="K101" t="s">
-        <v>30</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101" s="2">
-        <v>24606</v>
+      <c r="P101" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>585</v>
       </c>
       <c r="R101">
-        <v>0.2492449848707346</v>
+        <v>0.2437867923192043</v>
       </c>
       <c r="S101">
         <v>1</v>
       </c>
       <c r="T101" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="C102" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="D102" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="E102" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="F102" t="s">
         <v>25</v>
       </c>
       <c r="G102" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="H102" t="s">
         <v>27</v>
@@ -7227,7 +7203,7 @@
         <v>28</v>
       </c>
       <c r="J102" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="K102" t="s">
         <v>30</v>
@@ -7236,136 +7212,139 @@
         <v>0</v>
       </c>
       <c r="M102" s="2">
-        <v>23990</v>
+        <v>23075</v>
       </c>
       <c r="R102">
-        <v>0.24515197210051079</v>
+        <v>0.23915653993026359</v>
       </c>
       <c r="S102">
         <v>1</v>
       </c>
       <c r="T102" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>281</v>
+      </c>
       <c r="B103" t="s">
-        <v>471</v>
+        <v>282</v>
+      </c>
+      <c r="C103" t="s">
+        <v>283</v>
       </c>
       <c r="D103" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="E103" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="F103" t="s">
-        <v>472</v>
+        <v>25</v>
       </c>
       <c r="G103" t="s">
-        <v>473</v>
+        <v>284</v>
       </c>
       <c r="H103" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" t="s">
+        <v>28</v>
+      </c>
+      <c r="J103" t="s">
+        <v>285</v>
+      </c>
+      <c r="K103" t="s">
+        <v>30</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103" s="2">
+        <v>23788</v>
+      </c>
+      <c r="R103">
+        <v>0.24381970688576779</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+      <c r="T103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" t="s">
+        <v>586</v>
+      </c>
+      <c r="D104" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" t="s">
+        <v>497</v>
+      </c>
+      <c r="F104" t="s">
+        <v>529</v>
+      </c>
+      <c r="G104" t="s">
+        <v>587</v>
+      </c>
+      <c r="H104" t="s">
         <v>460</v>
       </c>
-      <c r="K103" t="s">
-        <v>461</v>
-      </c>
-      <c r="L103">
-        <v>1</v>
-      </c>
-      <c r="M103" s="2">
-        <v>24183</v>
-      </c>
-      <c r="O103" t="s">
+      <c r="K104" t="s">
+        <v>574</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104" s="2">
+        <v>36076</v>
+      </c>
+      <c r="O104" t="s">
         <v>462</v>
       </c>
-      <c r="P103" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>474</v>
-      </c>
-      <c r="R103">
-        <v>0.246429462769231</v>
-      </c>
-      <c r="S103">
-        <v>1</v>
-      </c>
-      <c r="T103" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>379</v>
-      </c>
-      <c r="B104" t="s">
-        <v>380</v>
-      </c>
-      <c r="C104" t="s">
-        <v>381</v>
-      </c>
-      <c r="D104" t="s">
-        <v>23</v>
-      </c>
-      <c r="E104" t="s">
-        <v>214</v>
-      </c>
-      <c r="F104" t="s">
-        <v>25</v>
-      </c>
-      <c r="G104" t="s">
-        <v>382</v>
-      </c>
-      <c r="H104" t="s">
-        <v>27</v>
-      </c>
-      <c r="I104" t="s">
-        <v>28</v>
-      </c>
-      <c r="J104" t="s">
-        <v>383</v>
-      </c>
-      <c r="K104" t="s">
-        <v>30</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-      <c r="M104" s="2">
-        <v>33388</v>
+      <c r="P104" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>588</v>
       </c>
       <c r="R104">
-        <v>0.3123681567066211</v>
+        <v>0.33334542016147478</v>
       </c>
       <c r="S104">
         <v>1</v>
       </c>
       <c r="T104" t="s">
-        <v>384</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>427</v>
+        <v>99</v>
       </c>
       <c r="B105" t="s">
-        <v>380</v>
+        <v>61</v>
       </c>
       <c r="C105" t="s">
-        <v>381</v>
+        <v>100</v>
       </c>
       <c r="D105" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="E105" t="s">
-        <v>214</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
         <v>25</v>
       </c>
       <c r="G105" t="s">
-        <v>428</v>
+        <v>101</v>
       </c>
       <c r="H105" t="s">
         <v>27</v>
@@ -7374,7 +7353,7 @@
         <v>28</v>
       </c>
       <c r="J105" t="s">
-        <v>429</v>
+        <v>102</v>
       </c>
       <c r="K105" t="s">
         <v>30</v>
@@ -7383,133 +7362,139 @@
         <v>0</v>
       </c>
       <c r="M105" s="2">
-        <v>33390</v>
+        <v>35958</v>
       </c>
       <c r="R105">
-        <v>0.31238349589530218</v>
+        <v>0.33240976520435173</v>
       </c>
       <c r="S105">
         <v>1</v>
       </c>
       <c r="T105" t="s">
-        <v>384</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>343</v>
+      </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>344</v>
+      </c>
+      <c r="C106" t="s">
+        <v>345</v>
       </c>
       <c r="D106" t="s">
-        <v>278</v>
+        <v>55</v>
       </c>
       <c r="E106" t="s">
-        <v>278</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s">
+        <v>346</v>
+      </c>
+      <c r="H106" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" t="s">
+        <v>28</v>
+      </c>
+      <c r="J106" t="s">
+        <v>347</v>
+      </c>
+      <c r="K106" t="s">
+        <v>30</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106" s="2">
+        <v>36071</v>
+      </c>
+      <c r="R106">
+        <v>0.3333057470482727</v>
+      </c>
+      <c r="S106">
+        <v>1</v>
+      </c>
+      <c r="T106" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>520</v>
+      </c>
+      <c r="C107" t="s">
+        <v>589</v>
+      </c>
+      <c r="D107" t="s">
+        <v>83</v>
+      </c>
+      <c r="E107" t="s">
+        <v>70</v>
+      </c>
+      <c r="F107" t="s">
         <v>458</v>
       </c>
-      <c r="G106" t="s">
-        <v>599</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="G107" t="s">
+        <v>590</v>
+      </c>
+      <c r="H107" t="s">
         <v>460</v>
       </c>
-      <c r="K106" t="s">
+      <c r="K107" t="s">
         <v>574</v>
       </c>
-      <c r="L106">
-        <v>1</v>
-      </c>
-      <c r="M106" s="2">
-        <v>33398</v>
-      </c>
-      <c r="O106" t="s">
-        <v>600</v>
-      </c>
-      <c r="P106" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>601</v>
-      </c>
-      <c r="R106">
-        <v>0.31244485676019118</v>
-      </c>
-      <c r="S106">
-        <v>1</v>
-      </c>
-      <c r="T106" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>397</v>
-      </c>
-      <c r="B107" t="s">
-        <v>398</v>
-      </c>
-      <c r="C107" t="s">
-        <v>399</v>
-      </c>
-      <c r="D107" t="s">
-        <v>55</v>
-      </c>
-      <c r="E107" t="s">
-        <v>179</v>
-      </c>
-      <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" t="s">
-        <v>400</v>
-      </c>
-      <c r="H107" t="s">
-        <v>27</v>
-      </c>
-      <c r="I107" t="s">
-        <v>28</v>
-      </c>
-      <c r="J107" t="s">
-        <v>401</v>
-      </c>
-      <c r="K107" t="s">
-        <v>30</v>
-      </c>
       <c r="L107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" s="2">
-        <v>37176</v>
+        <v>35493</v>
+      </c>
+      <c r="O107" t="s">
+        <v>462</v>
+      </c>
+      <c r="P107" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>591</v>
       </c>
       <c r="R107">
-        <v>0.34213013729429348</v>
+        <v>0.32873555653320569</v>
       </c>
       <c r="S107">
         <v>1</v>
       </c>
       <c r="T107" t="s">
-        <v>402</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>414</v>
+        <v>260</v>
       </c>
       <c r="B108" t="s">
-        <v>415</v>
+        <v>145</v>
+      </c>
+      <c r="C108" t="s">
+        <v>261</v>
       </c>
       <c r="D108" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="E108" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="F108" t="s">
         <v>25</v>
       </c>
       <c r="G108" t="s">
-        <v>416</v>
+        <v>262</v>
       </c>
       <c r="H108" t="s">
         <v>27</v>
@@ -7518,7 +7503,7 @@
         <v>28</v>
       </c>
       <c r="J108" t="s">
-        <v>417</v>
+        <v>263</v>
       </c>
       <c r="K108" t="s">
         <v>30</v>
@@ -7527,133 +7512,139 @@
         <v>0</v>
       </c>
       <c r="M108" s="2">
-        <v>38183</v>
+        <v>35163</v>
       </c>
       <c r="R108">
-        <v>0.35026836487832819</v>
+        <v>0.32614067486267317</v>
       </c>
       <c r="S108">
         <v>1</v>
       </c>
       <c r="T108" t="s">
-        <v>402</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>286</v>
+      </c>
       <c r="B109" t="s">
-        <v>475</v>
+        <v>287</v>
+      </c>
+      <c r="C109" t="s">
+        <v>288</v>
       </c>
       <c r="D109" t="s">
-        <v>476</v>
+        <v>23</v>
       </c>
       <c r="E109" t="s">
-        <v>477</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" t="s">
+        <v>289</v>
+      </c>
+      <c r="H109" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J109" t="s">
+        <v>290</v>
+      </c>
+      <c r="K109" t="s">
+        <v>30</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109" s="2">
+        <v>35328</v>
+      </c>
+      <c r="R109">
+        <v>0.32743679664482173</v>
+      </c>
+      <c r="S109">
+        <v>1</v>
+      </c>
+      <c r="T109" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
+        <v>592</v>
+      </c>
+      <c r="D110" t="s">
+        <v>83</v>
+      </c>
+      <c r="E110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F110" t="s">
         <v>472</v>
       </c>
-      <c r="G109" t="s">
-        <v>478</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="G110" t="s">
+        <v>593</v>
+      </c>
+      <c r="H110" t="s">
         <v>460</v>
       </c>
-      <c r="K109" t="s">
-        <v>461</v>
-      </c>
-      <c r="L109">
-        <v>1</v>
-      </c>
-      <c r="M109" s="2">
-        <v>37627</v>
-      </c>
-      <c r="O109" t="s">
+      <c r="K110" t="s">
+        <v>574</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110" s="2">
+        <v>33912</v>
+      </c>
+      <c r="O110" t="s">
         <v>462</v>
       </c>
-      <c r="P109" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>479</v>
-      </c>
-      <c r="R109">
-        <v>0.34576382659865329</v>
-      </c>
-      <c r="S109">
-        <v>1</v>
-      </c>
-      <c r="T109" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>327</v>
-      </c>
-      <c r="B110" t="s">
-        <v>328</v>
-      </c>
-      <c r="C110" t="s">
-        <v>329</v>
-      </c>
-      <c r="D110" t="s">
-        <v>118</v>
-      </c>
-      <c r="E110" t="s">
-        <v>118</v>
-      </c>
-      <c r="F110" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110" t="s">
-        <v>330</v>
-      </c>
-      <c r="H110" t="s">
-        <v>27</v>
-      </c>
-      <c r="I110" t="s">
-        <v>28</v>
-      </c>
-      <c r="J110" t="s">
-        <v>331</v>
-      </c>
-      <c r="K110" t="s">
-        <v>30</v>
-      </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="M110" s="2">
-        <v>26472</v>
+      <c r="P110" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>594</v>
       </c>
       <c r="R110">
-        <v>0.26191957621954048</v>
+        <v>0.31640101039320428</v>
       </c>
       <c r="S110">
         <v>1</v>
       </c>
       <c r="T110" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>440</v>
+        <v>311</v>
       </c>
       <c r="B111" t="s">
-        <v>441</v>
+        <v>312</v>
+      </c>
+      <c r="C111" t="s">
+        <v>313</v>
       </c>
       <c r="D111" t="s">
-        <v>442</v>
+        <v>36</v>
       </c>
       <c r="E111" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
         <v>25</v>
       </c>
       <c r="G111" t="s">
-        <v>444</v>
+        <v>314</v>
       </c>
       <c r="H111" t="s">
         <v>27</v>
@@ -7662,7 +7653,7 @@
         <v>28</v>
       </c>
       <c r="J111" t="s">
-        <v>445</v>
+        <v>315</v>
       </c>
       <c r="K111" t="s">
         <v>30</v>
@@ -7671,133 +7662,136 @@
         <v>0</v>
       </c>
       <c r="M111" s="2">
-        <v>27837</v>
+        <v>33709</v>
       </c>
       <c r="R111">
-        <v>0.27145039255831321</v>
+        <v>0.31483534237118038</v>
       </c>
       <c r="S111">
         <v>1</v>
       </c>
       <c r="T111" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>451</v>
+      </c>
       <c r="B112" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="C112" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="D112" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="F112" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s">
+        <v>454</v>
+      </c>
+      <c r="H112" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" t="s">
+        <v>28</v>
+      </c>
+      <c r="J112" t="s">
+        <v>455</v>
+      </c>
+      <c r="K112" t="s">
+        <v>30</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112" s="2">
+        <v>33837</v>
+      </c>
+      <c r="R112">
+        <v>0.31582207428164671</v>
+      </c>
+      <c r="S112">
+        <v>1</v>
+      </c>
+      <c r="T112" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>168</v>
+      </c>
+      <c r="C113" t="s">
+        <v>583</v>
+      </c>
+      <c r="D113" t="s">
+        <v>70</v>
+      </c>
+      <c r="E113" t="s">
+        <v>158</v>
+      </c>
+      <c r="F113" t="s">
         <v>458</v>
       </c>
-      <c r="G112" t="s">
-        <v>482</v>
-      </c>
-      <c r="H112" t="s">
+      <c r="G113" t="s">
+        <v>584</v>
+      </c>
+      <c r="H113" t="s">
         <v>460</v>
       </c>
-      <c r="K112" t="s">
-        <v>461</v>
-      </c>
-      <c r="L112">
-        <v>1</v>
-      </c>
-      <c r="M112" s="2">
-        <v>28084</v>
-      </c>
-      <c r="O112" t="s">
+      <c r="K113" t="s">
+        <v>574</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113" s="2">
+        <v>23783</v>
+      </c>
+      <c r="O113" t="s">
         <v>462</v>
       </c>
-      <c r="P112" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>483</v>
-      </c>
-      <c r="R112">
-        <v>0.27319808036632143</v>
-      </c>
-      <c r="S112">
-        <v>1</v>
-      </c>
-      <c r="T112" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>40</v>
-      </c>
-      <c r="B113" t="s">
-        <v>41</v>
-      </c>
-      <c r="D113" t="s">
-        <v>42</v>
-      </c>
-      <c r="F113" t="s">
-        <v>25</v>
-      </c>
-      <c r="G113" t="s">
-        <v>43</v>
-      </c>
-      <c r="H113" t="s">
-        <v>27</v>
-      </c>
-      <c r="I113" t="s">
-        <v>28</v>
-      </c>
-      <c r="J113" t="s">
-        <v>44</v>
-      </c>
-      <c r="K113" t="s">
-        <v>30</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113" s="2">
-        <v>31616</v>
+      <c r="P113" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>585</v>
       </c>
       <c r="R113">
-        <v>0.29894169188161412</v>
+        <v>0.2437867923192043</v>
       </c>
       <c r="S113">
         <v>1</v>
       </c>
       <c r="T113" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>228</v>
+        <v>352</v>
       </c>
       <c r="B114" t="s">
-        <v>229</v>
-      </c>
-      <c r="C114" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="D114" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E114" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="F114" t="s">
         <v>25</v>
       </c>
       <c r="G114" t="s">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="H114" t="s">
         <v>27</v>
@@ -7806,7 +7800,7 @@
         <v>28</v>
       </c>
       <c r="J114" t="s">
-        <v>232</v>
+        <v>354</v>
       </c>
       <c r="K114" t="s">
         <v>30</v>
@@ -7815,133 +7809,139 @@
         <v>0</v>
       </c>
       <c r="M114" s="2">
-        <v>32025</v>
+        <v>23046</v>
       </c>
       <c r="R114">
-        <v>0.30201125873785972</v>
+        <v>0.2389681741164974</v>
       </c>
       <c r="S114">
         <v>1</v>
       </c>
       <c r="T114" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>238</v>
+      </c>
       <c r="B115" t="s">
-        <v>484</v>
+        <v>239</v>
       </c>
       <c r="C115" t="s">
-        <v>419</v>
+        <v>240</v>
       </c>
       <c r="D115" t="s">
-        <v>485</v>
+        <v>118</v>
       </c>
       <c r="E115" t="s">
+        <v>70</v>
+      </c>
+      <c r="F115" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" t="s">
+        <v>241</v>
+      </c>
+      <c r="H115" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J115" t="s">
+        <v>242</v>
+      </c>
+      <c r="K115" t="s">
+        <v>30</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115" s="2">
+        <v>23330</v>
+      </c>
+      <c r="R115">
+        <v>0.2408172402274539</v>
+      </c>
+      <c r="S115">
+        <v>1</v>
+      </c>
+      <c r="T115" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>431</v>
+      </c>
+      <c r="C116" t="s">
+        <v>595</v>
+      </c>
+      <c r="D116" t="s">
         <v>36</v>
       </c>
-      <c r="F115" t="s">
+      <c r="E116" t="s">
+        <v>596</v>
+      </c>
+      <c r="F116" t="s">
         <v>472</v>
       </c>
-      <c r="G115" t="s">
-        <v>486</v>
-      </c>
-      <c r="H115" t="s">
+      <c r="G116" t="s">
+        <v>597</v>
+      </c>
+      <c r="H116" t="s">
         <v>460</v>
       </c>
-      <c r="K115" t="s">
-        <v>461</v>
-      </c>
-      <c r="L115">
-        <v>1</v>
-      </c>
-      <c r="M115" s="2">
-        <v>31637</v>
-      </c>
-      <c r="O115" t="s">
+      <c r="K116" t="s">
+        <v>574</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116" s="2">
+        <v>31324</v>
+      </c>
+      <c r="O116" t="s">
         <v>462</v>
       </c>
-      <c r="P115" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>487</v>
-      </c>
-      <c r="R115">
-        <v>0.29909886172553501</v>
-      </c>
-      <c r="S115">
-        <v>1</v>
-      </c>
-      <c r="T115" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" t="s">
-        <v>117</v>
-      </c>
-      <c r="D116" t="s">
-        <v>118</v>
-      </c>
-      <c r="E116" t="s">
-        <v>118</v>
-      </c>
-      <c r="F116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G116" t="s">
-        <v>119</v>
-      </c>
-      <c r="H116" t="s">
-        <v>27</v>
-      </c>
-      <c r="I116" t="s">
-        <v>28</v>
-      </c>
-      <c r="J116" t="s">
-        <v>120</v>
-      </c>
-      <c r="K116" t="s">
-        <v>30</v>
-      </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="M116" s="2">
-        <v>29423</v>
+      <c r="P116" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>598</v>
       </c>
       <c r="R116">
-        <v>0.28279362238497469</v>
+        <v>0.29676120265499739</v>
       </c>
       <c r="S116">
         <v>1</v>
       </c>
       <c r="T116" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>75</v>
+      </c>
+      <c r="C117" t="s">
+        <v>76</v>
       </c>
       <c r="D117" t="s">
+        <v>77</v>
+      </c>
+      <c r="E117" t="s">
         <v>70</v>
-      </c>
-      <c r="E117" t="s">
-        <v>235</v>
       </c>
       <c r="F117" t="s">
         <v>25</v>
       </c>
       <c r="G117" t="s">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="H117" t="s">
         <v>27</v>
@@ -7950,7 +7950,7 @@
         <v>28</v>
       </c>
       <c r="J117" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="K117" t="s">
         <v>30</v>
@@ -7959,136 +7959,136 @@
         <v>0</v>
       </c>
       <c r="M117" s="2">
-        <v>27400</v>
+        <v>31082</v>
       </c>
       <c r="R117">
-        <v>0.26837556989636902</v>
+        <v>0.29496107033790242</v>
       </c>
       <c r="S117">
         <v>1</v>
       </c>
       <c r="T117" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>244</v>
+      </c>
       <c r="B118" t="s">
-        <v>111</v>
+        <v>245</v>
       </c>
       <c r="C118" t="s">
-        <v>488</v>
+        <v>246</v>
       </c>
       <c r="D118" t="s">
-        <v>424</v>
+        <v>36</v>
       </c>
       <c r="E118" t="s">
-        <v>489</v>
+        <v>247</v>
       </c>
       <c r="F118" t="s">
-        <v>472</v>
+        <v>25</v>
       </c>
       <c r="G118" t="s">
-        <v>490</v>
+        <v>248</v>
       </c>
       <c r="H118" t="s">
+        <v>27</v>
+      </c>
+      <c r="I118" t="s">
+        <v>28</v>
+      </c>
+      <c r="J118" t="s">
+        <v>249</v>
+      </c>
+      <c r="K118" t="s">
+        <v>30</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118" s="2">
+        <v>31242</v>
+      </c>
+      <c r="R118">
+        <v>0.29615052930068508</v>
+      </c>
+      <c r="S118">
+        <v>1</v>
+      </c>
+      <c r="T118" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" t="s">
+        <v>278</v>
+      </c>
+      <c r="E119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F119" t="s">
+        <v>458</v>
+      </c>
+      <c r="G119" t="s">
+        <v>599</v>
+      </c>
+      <c r="H119" t="s">
         <v>460</v>
       </c>
-      <c r="K118" t="s">
-        <v>461</v>
-      </c>
-      <c r="L118">
-        <v>1</v>
-      </c>
-      <c r="M118" s="2">
-        <v>29474</v>
-      </c>
-      <c r="O118" t="s">
-        <v>462</v>
-      </c>
-      <c r="P118" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>491</v>
-      </c>
-      <c r="R118">
-        <v>0.28316310964037927</v>
-      </c>
-      <c r="S118">
-        <v>1</v>
-      </c>
-      <c r="T118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>81</v>
-      </c>
-      <c r="B119" t="s">
-        <v>82</v>
-      </c>
-      <c r="D119" t="s">
-        <v>83</v>
-      </c>
-      <c r="E119" t="s">
-        <v>84</v>
-      </c>
-      <c r="F119" t="s">
-        <v>25</v>
-      </c>
-      <c r="G119" t="s">
-        <v>85</v>
-      </c>
-      <c r="H119" t="s">
-        <v>27</v>
-      </c>
-      <c r="I119" t="s">
-        <v>28</v>
-      </c>
-      <c r="J119" t="s">
-        <v>86</v>
-      </c>
       <c r="K119" t="s">
-        <v>30</v>
+        <v>574</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" s="2">
-        <v>29125</v>
+        <v>33398</v>
+      </c>
+      <c r="O119" t="s">
+        <v>600</v>
+      </c>
+      <c r="P119" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>601</v>
       </c>
       <c r="R119">
-        <v>0.28064050752842479</v>
+        <v>0.31244485676019118</v>
       </c>
       <c r="S119">
         <v>1</v>
       </c>
       <c r="T119" t="s">
-        <v>87</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>302</v>
+        <v>379</v>
       </c>
       <c r="B120" t="s">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="C120" t="s">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="D120" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="E120" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="F120" t="s">
         <v>25</v>
       </c>
       <c r="G120" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="H120" t="s">
         <v>27</v>
@@ -8097,7 +8097,7 @@
         <v>28</v>
       </c>
       <c r="J120" t="s">
-        <v>305</v>
+        <v>383</v>
       </c>
       <c r="K120" t="s">
         <v>30</v>
@@ -8106,72 +8106,74 @@
         <v>0</v>
       </c>
       <c r="M120" s="2">
-        <v>29960</v>
+        <v>33388</v>
       </c>
       <c r="R120">
-        <v>0.28669871223275001</v>
+        <v>0.3123681567066211</v>
       </c>
       <c r="S120">
         <v>1</v>
       </c>
       <c r="T120" t="s">
-        <v>87</v>
+        <v>384</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>427</v>
+      </c>
       <c r="B121" t="s">
-        <v>492</v>
+        <v>380</v>
       </c>
       <c r="C121" t="s">
-        <v>493</v>
+        <v>381</v>
       </c>
       <c r="D121" t="s">
-        <v>448</v>
+        <v>23</v>
       </c>
       <c r="E121" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="F121" t="s">
-        <v>472</v>
+        <v>25</v>
       </c>
       <c r="G121" t="s">
-        <v>494</v>
+        <v>428</v>
       </c>
       <c r="H121" t="s">
-        <v>460</v>
+        <v>27</v>
+      </c>
+      <c r="I121" t="s">
+        <v>28</v>
+      </c>
+      <c r="J121" t="s">
+        <v>429</v>
       </c>
       <c r="K121" t="s">
-        <v>461</v>
+        <v>30</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M121" s="2">
-        <v>29786</v>
-      </c>
-      <c r="O121" t="s">
-        <v>462</v>
-      </c>
-      <c r="P121" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>495</v>
+        <v>33390</v>
       </c>
       <c r="R121">
-        <v>0.28542984760534212</v>
+        <v>0.31238349589530218</v>
       </c>
       <c r="S121">
         <v>1</v>
       </c>
       <c r="T121" t="s">
-        <v>87</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:T121" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T121">
-      <sortCondition ref="T1:T121"/>
+      <sortCondition ref="T2:T121"/>
+      <sortCondition descending="1" ref="L2:L121"/>
+      <sortCondition ref="R2:R121"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
